--- a/GATEWAY/A1#111#SOSEPEXX/SOSEPE_SRL/CAMILLA/FSE-2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#SOSEPEXX/SOSEPE_SRL/CAMILLA/FSE-2.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\playground\it-fse-accreditamento\GATEWAY\A1#111#SOSEPEXX\SOSEPE_SRL\CAMILLA\FSE-2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F28F59-BDC8-483A-8E31-DE53B295D2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0260534-F306-4168-B8EB-920540AD728F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="481">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1789,6 +1789,170 @@
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.c0859b2f3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
+  <si>
+    <t>Il software non consente di omettere i campi obbligatori relativi al token jwt</t>
+  </si>
+  <si>
+    <t>I campi relativi al token jwt non sono modificabili</t>
+  </si>
+  <si>
+    <t>ATTENZIONE: invio Patient Summary fallito:server momentaneamente non raggiungibile (TIMEOUT)</t>
+  </si>
+  <si>
+    <t>Al medico compare una finestra con il messaggio di errore indicato ed il solo tasto OK. La procedura di invio viene interrotta.</t>
+  </si>
+  <si>
+    <t>Il software non permette di inviare un Patient Summary se non è specificato il livello di riservatezza</t>
+  </si>
+  <si>
+    <t>Il software non consente l'invio di un Patient Summary con codice fiscale errato. I codici fiscali vengono convertiti sempre in maiuscolo</t>
+  </si>
+  <si>
+    <t>Il software non consente di impostare un livello di riservatezza "Restricted"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il software non consente la compilazione di un Patient Summary se non è specificato il comune di residenza del paziente </t>
+  </si>
+  <si>
+    <t>Il software non consente di inviare un Patient Summary se non è valorizzato il nome del paziente</t>
+  </si>
+  <si>
+    <t>Il software non consente la registrazione di un paziente con valori relativi al sesso diversi da quelli ammessi.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il software non consente di inserire nel campo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PersonalRelationshipRoleType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> valori non appartenenti al dizionario associato</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L'elemento </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>act/code,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> inerente alla lista dei problemi del paziente, è un dato obbligatorio</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Il software invia sempre la sezione obbligatoria "Stato funzionale del paziente" </t>
+  </si>
+  <si>
+    <t>Il software prevede sempre la compilazione della sezione narrativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laddove indicato l'invio della sezione Visite e ricoveri, il software imposta sempre  le informazioni e i riferimenti relativi a visite e ricoveri subiti dal paziente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il software non consente di omettere la data di inizio terapia. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L'elemento </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>relatedSubject/code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> è sempre compilato</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nel software l'inserimento della data di inizio allergia è obbligatorio </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nel software la compilazione dell'elemento </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>observation/participant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> è obbligatoria</t>
+    </r>
+  </si>
+  <si>
+    <t>Il software non consente valorizzazioni diverse da quelle previste dal sistema di codifica di riferimento nella compilazione dello stato funzionale del paziente</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il software non consente la valorizzazione dell'elemento </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>signatureCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> del firmatario del documento diverso da "S" </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1797,7 +1961,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1920,6 +2084,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2378,6 +2547,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2399,9 +2571,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3848,8 +4017,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W775"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight"/>
@@ -3894,12 +4063,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="46"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3920,14 +4089,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="54" t="s">
         <v>452</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="46"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3948,12 +4117,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="54" t="s">
         <v>453</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3975,12 +4144,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="46"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4001,8 +4170,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4248,7 +4417,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>30</v>
       </c>
@@ -4268,20 +4437,26 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="40"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="29" t="s">
+      <c r="J13" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4305,20 +4480,26 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="40"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="29" t="s">
+      <c r="J14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4342,20 +4523,22 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="40"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="29" t="s">
+      <c r="J15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4379,20 +4562,26 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="29" t="s">
+      <c r="J16" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4416,20 +4605,26 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="29" t="s">
+      <c r="J17" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4453,20 +4648,26 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="29" t="s">
+      <c r="J18" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4490,20 +4691,26 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="29" t="s">
+      <c r="J19" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4527,24 +4734,30 @@
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="29" t="s">
+      <c r="J20" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>38</v>
       </c>
@@ -4564,20 +4777,26 @@
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="29" t="s">
+      <c r="J21" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4601,20 +4820,20 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="29" t="s">
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4638,20 +4857,20 @@
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="29" t="s">
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4675,20 +4894,20 @@
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="29" t="s">
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4712,20 +4931,20 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="29" t="s">
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4749,20 +4968,20 @@
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="29" t="s">
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4786,22 +5005,22 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="34" t="s">
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="V27" s="35"/>
-      <c r="W27" s="29" t="s">
+      <c r="V27" s="33"/>
+      <c r="W27" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4825,26 +5044,26 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="34" t="s">
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="V28" s="35"/>
-      <c r="W28" s="29" t="s">
+      <c r="V28" s="33"/>
+      <c r="W28" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <v>46</v>
       </c>
@@ -4864,22 +5083,38 @@
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="34" t="s">
+      <c r="J29" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="V29" s="35"/>
-      <c r="W29" s="29" t="s">
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q29" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="R29" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="S29" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4903,22 +5138,22 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="34" t="s">
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="V30" s="35"/>
-      <c r="W30" s="29" t="s">
+      <c r="V30" s="33"/>
+      <c r="W30" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4942,22 +5177,22 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="34" t="s">
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="V31" s="35"/>
-      <c r="W31" s="29" t="s">
+      <c r="V31" s="33"/>
+      <c r="W31" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4981,22 +5216,22 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="34" t="s">
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="V32" s="35"/>
-      <c r="W32" s="29" t="s">
+      <c r="V32" s="33"/>
+      <c r="W32" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5020,22 +5255,22 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="34" t="s">
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="V33" s="35"/>
-      <c r="W33" s="29" t="s">
+      <c r="V33" s="33"/>
+      <c r="W33" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5059,22 +5294,22 @@
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="40"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="34" t="s">
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="V34" s="35"/>
-      <c r="W34" s="29" t="s">
+      <c r="V34" s="33"/>
+      <c r="W34" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5098,20 +5333,20 @@
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="40"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="29" t="s">
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5135,20 +5370,20 @@
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="29" t="s">
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5172,20 +5407,20 @@
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="29" t="s">
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5209,20 +5444,20 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="29" t="s">
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5246,20 +5481,20 @@
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="29" t="s">
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5283,20 +5518,20 @@
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="29" t="s">
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5320,20 +5555,20 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="29" t="s">
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5357,20 +5592,20 @@
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="29" t="s">
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5394,20 +5629,20 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="29" t="s">
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5431,20 +5666,20 @@
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="40"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="29" t="s">
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5468,20 +5703,20 @@
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="40"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="29" t="s">
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5505,20 +5740,20 @@
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
       <c r="I46" s="40"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="29" t="s">
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5542,20 +5777,20 @@
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="40"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="29" t="s">
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5579,20 +5814,20 @@
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="29" t="s">
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5616,20 +5851,20 @@
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
       <c r="I49" s="40"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="29" t="s">
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5653,20 +5888,20 @@
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="29" t="s">
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="33"/>
+      <c r="W50" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5690,20 +5925,20 @@
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="29" t="s">
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5727,20 +5962,20 @@
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
       <c r="I52" s="40"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="29" t="s">
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5764,20 +5999,20 @@
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
       <c r="I53" s="40"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="29" t="s">
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5801,20 +6036,20 @@
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
       <c r="I54" s="40"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="29" t="s">
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5838,20 +6073,20 @@
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
       <c r="I55" s="40"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="29" t="s">
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5875,20 +6110,20 @@
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="40"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="29" t="s">
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5912,20 +6147,20 @@
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
       <c r="I57" s="40"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="29" t="s">
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5949,20 +6184,20 @@
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
       <c r="I58" s="40"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="29" t="s">
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5986,20 +6221,20 @@
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
       <c r="I59" s="40"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="29" t="s">
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6023,20 +6258,20 @@
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
       <c r="I60" s="40"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="29" t="s">
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6060,20 +6295,20 @@
       <c r="G61" s="33"/>
       <c r="H61" s="33"/>
       <c r="I61" s="40"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="34"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="29" t="s">
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6097,20 +6332,20 @@
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="35"/>
-      <c r="W62" s="29" t="s">
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6134,20 +6369,20 @@
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="29" t="s">
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6171,20 +6406,20 @@
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
       <c r="I64" s="40"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="34"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="29" t="s">
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6208,20 +6443,20 @@
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
       <c r="I65" s="40"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="29" t="s">
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6245,20 +6480,20 @@
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
       <c r="I66" s="40"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="29" t="s">
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6282,20 +6517,20 @@
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
       <c r="I67" s="40"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="34"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="29" t="s">
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33"/>
+      <c r="V67" s="33"/>
+      <c r="W67" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6319,20 +6554,20 @@
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="34"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="29" t="s">
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6356,20 +6591,20 @@
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
       <c r="I69" s="40"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="29" t="s">
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6393,20 +6628,20 @@
       <c r="G70" s="33"/>
       <c r="H70" s="33"/>
       <c r="I70" s="40"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="29"/>
-      <c r="S70" s="29"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="29" t="s">
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6430,20 +6665,20 @@
       <c r="G71" s="33"/>
       <c r="H71" s="33"/>
       <c r="I71" s="40"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="34"/>
-      <c r="V71" s="35"/>
-      <c r="W71" s="29" t="s">
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="33"/>
+      <c r="V71" s="33"/>
+      <c r="W71" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6467,20 +6702,20 @@
       <c r="G72" s="33"/>
       <c r="H72" s="33"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="29"/>
-      <c r="U72" s="34"/>
-      <c r="V72" s="35"/>
-      <c r="W72" s="29" t="s">
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="33"/>
+      <c r="S72" s="33"/>
+      <c r="T72" s="33"/>
+      <c r="U72" s="33"/>
+      <c r="V72" s="33"/>
+      <c r="W72" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6504,20 +6739,20 @@
       <c r="G73" s="33"/>
       <c r="H73" s="33"/>
       <c r="I73" s="40"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="29"/>
-      <c r="U73" s="34"/>
-      <c r="V73" s="35"/>
-      <c r="W73" s="29" t="s">
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="33"/>
+      <c r="V73" s="33"/>
+      <c r="W73" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6541,20 +6776,20 @@
       <c r="G74" s="33"/>
       <c r="H74" s="33"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="29"/>
-      <c r="U74" s="34"/>
-      <c r="V74" s="35"/>
-      <c r="W74" s="29" t="s">
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="33"/>
+      <c r="V74" s="33"/>
+      <c r="W74" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6578,20 +6813,20 @@
       <c r="G75" s="33"/>
       <c r="H75" s="33"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="29"/>
-      <c r="U75" s="34"/>
-      <c r="V75" s="35"/>
-      <c r="W75" s="29" t="s">
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="33"/>
+      <c r="P75" s="33"/>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="33"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="33"/>
+      <c r="U75" s="33"/>
+      <c r="V75" s="33"/>
+      <c r="W75" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6615,20 +6850,20 @@
       <c r="G76" s="33"/>
       <c r="H76" s="33"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="29"/>
-      <c r="R76" s="29"/>
-      <c r="S76" s="29"/>
-      <c r="T76" s="29"/>
-      <c r="U76" s="34"/>
-      <c r="V76" s="35"/>
-      <c r="W76" s="29" t="s">
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="33"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="33"/>
+      <c r="S76" s="33"/>
+      <c r="T76" s="33"/>
+      <c r="U76" s="33"/>
+      <c r="V76" s="33"/>
+      <c r="W76" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6652,20 +6887,20 @@
       <c r="G77" s="33"/>
       <c r="H77" s="33"/>
       <c r="I77" s="40"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="29"/>
-      <c r="T77" s="29"/>
-      <c r="U77" s="34"/>
-      <c r="V77" s="35"/>
-      <c r="W77" s="29" t="s">
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="33"/>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="33"/>
+      <c r="R77" s="33"/>
+      <c r="S77" s="33"/>
+      <c r="T77" s="33"/>
+      <c r="U77" s="33"/>
+      <c r="V77" s="33"/>
+      <c r="W77" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6689,20 +6924,20 @@
       <c r="G78" s="33"/>
       <c r="H78" s="33"/>
       <c r="I78" s="40"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="29"/>
-      <c r="U78" s="34"/>
-      <c r="V78" s="35"/>
-      <c r="W78" s="29" t="s">
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33"/>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="33"/>
+      <c r="R78" s="33"/>
+      <c r="S78" s="33"/>
+      <c r="T78" s="33"/>
+      <c r="U78" s="33"/>
+      <c r="V78" s="33"/>
+      <c r="W78" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6726,20 +6961,20 @@
       <c r="G79" s="33"/>
       <c r="H79" s="33"/>
       <c r="I79" s="40"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="29"/>
-      <c r="U79" s="34"/>
-      <c r="V79" s="35"/>
-      <c r="W79" s="29" t="s">
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="33"/>
+      <c r="P79" s="33"/>
+      <c r="Q79" s="33"/>
+      <c r="R79" s="33"/>
+      <c r="S79" s="33"/>
+      <c r="T79" s="33"/>
+      <c r="U79" s="33"/>
+      <c r="V79" s="33"/>
+      <c r="W79" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6763,20 +6998,20 @@
       <c r="G80" s="33"/>
       <c r="H80" s="33"/>
       <c r="I80" s="40"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="29"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="29"/>
-      <c r="U80" s="34"/>
-      <c r="V80" s="35"/>
-      <c r="W80" s="29" t="s">
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="33"/>
+      <c r="P80" s="33"/>
+      <c r="Q80" s="33"/>
+      <c r="R80" s="33"/>
+      <c r="S80" s="33"/>
+      <c r="T80" s="33"/>
+      <c r="U80" s="33"/>
+      <c r="V80" s="33"/>
+      <c r="W80" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6800,20 +7035,20 @@
       <c r="G81" s="33"/>
       <c r="H81" s="33"/>
       <c r="I81" s="40"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="29"/>
-      <c r="S81" s="29"/>
-      <c r="T81" s="29"/>
-      <c r="U81" s="34"/>
-      <c r="V81" s="35"/>
-      <c r="W81" s="29" t="s">
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="33"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="33"/>
+      <c r="S81" s="33"/>
+      <c r="T81" s="33"/>
+      <c r="U81" s="33"/>
+      <c r="V81" s="33"/>
+      <c r="W81" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6837,20 +7072,20 @@
       <c r="G82" s="33"/>
       <c r="H82" s="33"/>
       <c r="I82" s="40"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="29"/>
-      <c r="S82" s="29"/>
-      <c r="T82" s="29"/>
-      <c r="U82" s="34"/>
-      <c r="V82" s="35"/>
-      <c r="W82" s="29" t="s">
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="33"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="33"/>
+      <c r="S82" s="33"/>
+      <c r="T82" s="33"/>
+      <c r="U82" s="33"/>
+      <c r="V82" s="33"/>
+      <c r="W82" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6874,20 +7109,20 @@
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
       <c r="I83" s="40"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="34"/>
-      <c r="V83" s="35"/>
-      <c r="W83" s="29" t="s">
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="33"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="33"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="33"/>
+      <c r="S83" s="33"/>
+      <c r="T83" s="33"/>
+      <c r="U83" s="33"/>
+      <c r="V83" s="33"/>
+      <c r="W83" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6911,20 +7146,20 @@
       <c r="G84" s="33"/>
       <c r="H84" s="33"/>
       <c r="I84" s="40"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="29"/>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="29"/>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="35"/>
-      <c r="W84" s="29" t="s">
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="33"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
+      <c r="V84" s="33"/>
+      <c r="W84" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6948,20 +7183,20 @@
       <c r="G85" s="33"/>
       <c r="H85" s="33"/>
       <c r="I85" s="40"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="29"/>
-      <c r="S85" s="29"/>
-      <c r="T85" s="29"/>
-      <c r="U85" s="34"/>
-      <c r="V85" s="35"/>
-      <c r="W85" s="29" t="s">
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="33"/>
+      <c r="R85" s="33"/>
+      <c r="S85" s="33"/>
+      <c r="T85" s="33"/>
+      <c r="U85" s="33"/>
+      <c r="V85" s="33"/>
+      <c r="W85" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6985,20 +7220,20 @@
       <c r="G86" s="33"/>
       <c r="H86" s="33"/>
       <c r="I86" s="40"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="29"/>
-      <c r="N86" s="29"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="29"/>
-      <c r="Q86" s="29"/>
-      <c r="R86" s="29"/>
-      <c r="S86" s="29"/>
-      <c r="T86" s="29"/>
-      <c r="U86" s="34"/>
-      <c r="V86" s="35"/>
-      <c r="W86" s="29" t="s">
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="33"/>
+      <c r="S86" s="33"/>
+      <c r="T86" s="33"/>
+      <c r="U86" s="33"/>
+      <c r="V86" s="33"/>
+      <c r="W86" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7022,20 +7257,20 @@
       <c r="G87" s="33"/>
       <c r="H87" s="33"/>
       <c r="I87" s="40"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="29"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="29"/>
-      <c r="S87" s="29"/>
-      <c r="T87" s="29"/>
-      <c r="U87" s="34"/>
-      <c r="V87" s="35"/>
-      <c r="W87" s="29" t="s">
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="33"/>
+      <c r="S87" s="33"/>
+      <c r="T87" s="33"/>
+      <c r="U87" s="33"/>
+      <c r="V87" s="33"/>
+      <c r="W87" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7059,20 +7294,20 @@
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
       <c r="I88" s="40"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="29"/>
-      <c r="O88" s="29"/>
-      <c r="P88" s="29"/>
-      <c r="Q88" s="29"/>
-      <c r="R88" s="29"/>
-      <c r="S88" s="29"/>
-      <c r="T88" s="29"/>
-      <c r="U88" s="34"/>
-      <c r="V88" s="35"/>
-      <c r="W88" s="29" t="s">
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="33"/>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="33"/>
+      <c r="S88" s="33"/>
+      <c r="T88" s="33"/>
+      <c r="U88" s="33"/>
+      <c r="V88" s="33"/>
+      <c r="W88" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7096,20 +7331,20 @@
       <c r="G89" s="33"/>
       <c r="H89" s="33"/>
       <c r="I89" s="40"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="29"/>
-      <c r="N89" s="29"/>
-      <c r="O89" s="29"/>
-      <c r="P89" s="29"/>
-      <c r="Q89" s="29"/>
-      <c r="R89" s="29"/>
-      <c r="S89" s="29"/>
-      <c r="T89" s="29"/>
-      <c r="U89" s="34"/>
-      <c r="V89" s="35"/>
-      <c r="W89" s="29" t="s">
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="33"/>
+      <c r="S89" s="33"/>
+      <c r="T89" s="33"/>
+      <c r="U89" s="33"/>
+      <c r="V89" s="33"/>
+      <c r="W89" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7133,20 +7368,20 @@
       <c r="G90" s="33"/>
       <c r="H90" s="33"/>
       <c r="I90" s="40"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="29"/>
-      <c r="S90" s="29"/>
-      <c r="T90" s="29"/>
-      <c r="U90" s="34"/>
-      <c r="V90" s="35"/>
-      <c r="W90" s="29" t="s">
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="33"/>
+      <c r="P90" s="33"/>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="33"/>
+      <c r="S90" s="33"/>
+      <c r="T90" s="33"/>
+      <c r="U90" s="33"/>
+      <c r="V90" s="33"/>
+      <c r="W90" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7170,20 +7405,20 @@
       <c r="G91" s="33"/>
       <c r="H91" s="33"/>
       <c r="I91" s="40"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="29"/>
-      <c r="O91" s="29"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="29"/>
-      <c r="S91" s="29"/>
-      <c r="T91" s="29"/>
-      <c r="U91" s="34"/>
-      <c r="V91" s="35"/>
-      <c r="W91" s="29" t="s">
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="33"/>
+      <c r="P91" s="33"/>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="33"/>
+      <c r="S91" s="33"/>
+      <c r="T91" s="33"/>
+      <c r="U91" s="33"/>
+      <c r="V91" s="33"/>
+      <c r="W91" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7207,20 +7442,20 @@
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
       <c r="I92" s="40"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="29"/>
-      <c r="N92" s="29"/>
-      <c r="O92" s="29"/>
-      <c r="P92" s="29"/>
-      <c r="Q92" s="29"/>
-      <c r="R92" s="29"/>
-      <c r="S92" s="29"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="34"/>
-      <c r="V92" s="35"/>
-      <c r="W92" s="29" t="s">
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="33"/>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="33"/>
+      <c r="S92" s="33"/>
+      <c r="T92" s="33"/>
+      <c r="U92" s="33"/>
+      <c r="V92" s="33"/>
+      <c r="W92" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7244,20 +7479,20 @@
       <c r="G93" s="33"/>
       <c r="H93" s="33"/>
       <c r="I93" s="40"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="29"/>
-      <c r="N93" s="29"/>
-      <c r="O93" s="29"/>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="29"/>
-      <c r="R93" s="29"/>
-      <c r="S93" s="29"/>
-      <c r="T93" s="29"/>
-      <c r="U93" s="34"/>
-      <c r="V93" s="35"/>
-      <c r="W93" s="29" t="s">
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="33"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="33"/>
+      <c r="O93" s="33"/>
+      <c r="P93" s="33"/>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="33"/>
+      <c r="S93" s="33"/>
+      <c r="T93" s="33"/>
+      <c r="U93" s="33"/>
+      <c r="V93" s="33"/>
+      <c r="W93" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7281,20 +7516,20 @@
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
       <c r="I94" s="40"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="29"/>
-      <c r="T94" s="29"/>
-      <c r="U94" s="34"/>
-      <c r="V94" s="35"/>
-      <c r="W94" s="29" t="s">
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="33"/>
+      <c r="Q94" s="33"/>
+      <c r="R94" s="33"/>
+      <c r="S94" s="33"/>
+      <c r="T94" s="33"/>
+      <c r="U94" s="33"/>
+      <c r="V94" s="33"/>
+      <c r="W94" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7318,20 +7553,20 @@
       <c r="G95" s="33"/>
       <c r="H95" s="33"/>
       <c r="I95" s="40"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="29"/>
-      <c r="T95" s="29"/>
-      <c r="U95" s="34"/>
-      <c r="V95" s="35"/>
-      <c r="W95" s="29" t="s">
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="33"/>
+      <c r="P95" s="33"/>
+      <c r="Q95" s="33"/>
+      <c r="R95" s="33"/>
+      <c r="S95" s="33"/>
+      <c r="T95" s="33"/>
+      <c r="U95" s="33"/>
+      <c r="V95" s="33"/>
+      <c r="W95" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7355,20 +7590,20 @@
       <c r="G96" s="33"/>
       <c r="H96" s="33"/>
       <c r="I96" s="40"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
-      <c r="N96" s="29"/>
-      <c r="O96" s="29"/>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="29"/>
-      <c r="S96" s="29"/>
-      <c r="T96" s="29"/>
-      <c r="U96" s="34"/>
-      <c r="V96" s="35"/>
-      <c r="W96" s="29" t="s">
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="33"/>
+      <c r="O96" s="33"/>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="33"/>
+      <c r="R96" s="33"/>
+      <c r="S96" s="33"/>
+      <c r="T96" s="33"/>
+      <c r="U96" s="33"/>
+      <c r="V96" s="33"/>
+      <c r="W96" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7392,20 +7627,20 @@
       <c r="G97" s="33"/>
       <c r="H97" s="33"/>
       <c r="I97" s="40"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="29"/>
-      <c r="N97" s="29"/>
-      <c r="O97" s="29"/>
-      <c r="P97" s="29"/>
-      <c r="Q97" s="29"/>
-      <c r="R97" s="29"/>
-      <c r="S97" s="29"/>
-      <c r="T97" s="29"/>
-      <c r="U97" s="34"/>
-      <c r="V97" s="35"/>
-      <c r="W97" s="29" t="s">
+      <c r="J97" s="33"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="33"/>
+      <c r="M97" s="33"/>
+      <c r="N97" s="33"/>
+      <c r="O97" s="33"/>
+      <c r="P97" s="33"/>
+      <c r="Q97" s="33"/>
+      <c r="R97" s="33"/>
+      <c r="S97" s="33"/>
+      <c r="T97" s="33"/>
+      <c r="U97" s="33"/>
+      <c r="V97" s="33"/>
+      <c r="W97" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7429,20 +7664,20 @@
       <c r="G98" s="33"/>
       <c r="H98" s="33"/>
       <c r="I98" s="40"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29"/>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="29"/>
-      <c r="S98" s="29"/>
-      <c r="T98" s="29"/>
-      <c r="U98" s="34"/>
-      <c r="V98" s="35"/>
-      <c r="W98" s="29" t="s">
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="33"/>
+      <c r="M98" s="33"/>
+      <c r="N98" s="33"/>
+      <c r="O98" s="33"/>
+      <c r="P98" s="33"/>
+      <c r="Q98" s="33"/>
+      <c r="R98" s="33"/>
+      <c r="S98" s="33"/>
+      <c r="T98" s="33"/>
+      <c r="U98" s="33"/>
+      <c r="V98" s="33"/>
+      <c r="W98" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7466,20 +7701,20 @@
       <c r="G99" s="33"/>
       <c r="H99" s="33"/>
       <c r="I99" s="40"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="29"/>
-      <c r="O99" s="29"/>
-      <c r="P99" s="29"/>
-      <c r="Q99" s="29"/>
-      <c r="R99" s="29"/>
-      <c r="S99" s="29"/>
-      <c r="T99" s="29"/>
-      <c r="U99" s="34"/>
-      <c r="V99" s="35"/>
-      <c r="W99" s="29" t="s">
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
+      <c r="R99" s="33"/>
+      <c r="S99" s="33"/>
+      <c r="T99" s="33"/>
+      <c r="U99" s="33"/>
+      <c r="V99" s="33"/>
+      <c r="W99" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7503,20 +7738,20 @@
       <c r="G100" s="33"/>
       <c r="H100" s="33"/>
       <c r="I100" s="40"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="29"/>
-      <c r="Q100" s="29"/>
-      <c r="R100" s="29"/>
-      <c r="S100" s="29"/>
-      <c r="T100" s="29"/>
-      <c r="U100" s="34"/>
-      <c r="V100" s="35"/>
-      <c r="W100" s="29" t="s">
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33"/>
+      <c r="O100" s="33"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="33"/>
+      <c r="S100" s="33"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="33"/>
+      <c r="V100" s="33"/>
+      <c r="W100" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7540,20 +7775,20 @@
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
       <c r="I101" s="40"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="29"/>
-      <c r="T101" s="29"/>
-      <c r="U101" s="34"/>
-      <c r="V101" s="35"/>
-      <c r="W101" s="29" t="s">
+      <c r="J101" s="33"/>
+      <c r="K101" s="33"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="33"/>
+      <c r="N101" s="33"/>
+      <c r="O101" s="33"/>
+      <c r="P101" s="33"/>
+      <c r="Q101" s="33"/>
+      <c r="R101" s="33"/>
+      <c r="S101" s="33"/>
+      <c r="T101" s="33"/>
+      <c r="U101" s="33"/>
+      <c r="V101" s="33"/>
+      <c r="W101" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7577,20 +7812,20 @@
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
       <c r="I102" s="40"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="29"/>
-      <c r="N102" s="29"/>
-      <c r="O102" s="29"/>
-      <c r="P102" s="29"/>
-      <c r="Q102" s="29"/>
-      <c r="R102" s="29"/>
-      <c r="S102" s="29"/>
-      <c r="T102" s="29"/>
-      <c r="U102" s="34"/>
-      <c r="V102" s="35"/>
-      <c r="W102" s="29" t="s">
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="33"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="33"/>
+      <c r="O102" s="33"/>
+      <c r="P102" s="33"/>
+      <c r="Q102" s="33"/>
+      <c r="R102" s="33"/>
+      <c r="S102" s="33"/>
+      <c r="T102" s="33"/>
+      <c r="U102" s="33"/>
+      <c r="V102" s="33"/>
+      <c r="W102" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7614,20 +7849,20 @@
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
       <c r="I103" s="40"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="29"/>
-      <c r="N103" s="29"/>
-      <c r="O103" s="29"/>
-      <c r="P103" s="29"/>
-      <c r="Q103" s="29"/>
-      <c r="R103" s="29"/>
-      <c r="S103" s="29"/>
-      <c r="T103" s="29"/>
-      <c r="U103" s="34"/>
-      <c r="V103" s="35"/>
-      <c r="W103" s="29" t="s">
+      <c r="J103" s="33"/>
+      <c r="K103" s="33"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="33"/>
+      <c r="O103" s="33"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="33"/>
+      <c r="S103" s="33"/>
+      <c r="T103" s="33"/>
+      <c r="U103" s="33"/>
+      <c r="V103" s="33"/>
+      <c r="W103" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7651,20 +7886,20 @@
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="40"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="29"/>
-      <c r="N104" s="29"/>
-      <c r="O104" s="29"/>
-      <c r="P104" s="29"/>
-      <c r="Q104" s="29"/>
-      <c r="R104" s="29"/>
-      <c r="S104" s="29"/>
-      <c r="T104" s="29"/>
-      <c r="U104" s="34"/>
-      <c r="V104" s="35"/>
-      <c r="W104" s="29" t="s">
+      <c r="J104" s="33"/>
+      <c r="K104" s="33"/>
+      <c r="L104" s="33"/>
+      <c r="M104" s="33"/>
+      <c r="N104" s="33"/>
+      <c r="O104" s="33"/>
+      <c r="P104" s="33"/>
+      <c r="Q104" s="33"/>
+      <c r="R104" s="33"/>
+      <c r="S104" s="33"/>
+      <c r="T104" s="33"/>
+      <c r="U104" s="33"/>
+      <c r="V104" s="33"/>
+      <c r="W104" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7688,20 +7923,20 @@
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
       <c r="I105" s="40"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="29"/>
-      <c r="M105" s="29"/>
-      <c r="N105" s="29"/>
-      <c r="O105" s="29"/>
-      <c r="P105" s="29"/>
-      <c r="Q105" s="29"/>
-      <c r="R105" s="29"/>
-      <c r="S105" s="29"/>
-      <c r="T105" s="29"/>
-      <c r="U105" s="34"/>
-      <c r="V105" s="35"/>
-      <c r="W105" s="29" t="s">
+      <c r="J105" s="33"/>
+      <c r="K105" s="33"/>
+      <c r="L105" s="33"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="33"/>
+      <c r="O105" s="33"/>
+      <c r="P105" s="33"/>
+      <c r="Q105" s="33"/>
+      <c r="R105" s="33"/>
+      <c r="S105" s="33"/>
+      <c r="T105" s="33"/>
+      <c r="U105" s="33"/>
+      <c r="V105" s="33"/>
+      <c r="W105" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7725,20 +7960,20 @@
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
       <c r="I106" s="40"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="29"/>
-      <c r="L106" s="29"/>
-      <c r="M106" s="29"/>
-      <c r="N106" s="29"/>
-      <c r="O106" s="29"/>
-      <c r="P106" s="29"/>
-      <c r="Q106" s="29"/>
-      <c r="R106" s="29"/>
-      <c r="S106" s="29"/>
-      <c r="T106" s="29"/>
-      <c r="U106" s="34"/>
-      <c r="V106" s="35"/>
-      <c r="W106" s="29" t="s">
+      <c r="J106" s="33"/>
+      <c r="K106" s="33"/>
+      <c r="L106" s="33"/>
+      <c r="M106" s="33"/>
+      <c r="N106" s="33"/>
+      <c r="O106" s="33"/>
+      <c r="P106" s="33"/>
+      <c r="Q106" s="33"/>
+      <c r="R106" s="33"/>
+      <c r="S106" s="33"/>
+      <c r="T106" s="33"/>
+      <c r="U106" s="33"/>
+      <c r="V106" s="33"/>
+      <c r="W106" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7762,20 +7997,20 @@
       <c r="G107" s="33"/>
       <c r="H107" s="33"/>
       <c r="I107" s="40"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="29"/>
-      <c r="O107" s="29"/>
-      <c r="P107" s="29"/>
-      <c r="Q107" s="29"/>
-      <c r="R107" s="29"/>
-      <c r="S107" s="29"/>
-      <c r="T107" s="29"/>
-      <c r="U107" s="34"/>
-      <c r="V107" s="35"/>
-      <c r="W107" s="29" t="s">
+      <c r="J107" s="33"/>
+      <c r="K107" s="33"/>
+      <c r="L107" s="33"/>
+      <c r="M107" s="33"/>
+      <c r="N107" s="33"/>
+      <c r="O107" s="33"/>
+      <c r="P107" s="33"/>
+      <c r="Q107" s="33"/>
+      <c r="R107" s="33"/>
+      <c r="S107" s="33"/>
+      <c r="T107" s="33"/>
+      <c r="U107" s="33"/>
+      <c r="V107" s="33"/>
+      <c r="W107" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7799,20 +8034,20 @@
       <c r="G108" s="33"/>
       <c r="H108" s="33"/>
       <c r="I108" s="40"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="29"/>
-      <c r="N108" s="29"/>
-      <c r="O108" s="29"/>
-      <c r="P108" s="29"/>
-      <c r="Q108" s="29"/>
-      <c r="R108" s="29"/>
-      <c r="S108" s="29"/>
-      <c r="T108" s="29"/>
-      <c r="U108" s="34"/>
-      <c r="V108" s="35"/>
-      <c r="W108" s="29" t="s">
+      <c r="J108" s="33"/>
+      <c r="K108" s="33"/>
+      <c r="L108" s="33"/>
+      <c r="M108" s="33"/>
+      <c r="N108" s="33"/>
+      <c r="O108" s="33"/>
+      <c r="P108" s="33"/>
+      <c r="Q108" s="33"/>
+      <c r="R108" s="33"/>
+      <c r="S108" s="33"/>
+      <c r="T108" s="33"/>
+      <c r="U108" s="33"/>
+      <c r="V108" s="33"/>
+      <c r="W108" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7836,20 +8071,20 @@
       <c r="G109" s="33"/>
       <c r="H109" s="33"/>
       <c r="I109" s="40"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="29"/>
-      <c r="M109" s="29"/>
-      <c r="N109" s="29"/>
-      <c r="O109" s="29"/>
-      <c r="P109" s="29"/>
-      <c r="Q109" s="29"/>
-      <c r="R109" s="29"/>
-      <c r="S109" s="29"/>
-      <c r="T109" s="29"/>
-      <c r="U109" s="34"/>
-      <c r="V109" s="35"/>
-      <c r="W109" s="29" t="s">
+      <c r="J109" s="33"/>
+      <c r="K109" s="33"/>
+      <c r="L109" s="33"/>
+      <c r="M109" s="33"/>
+      <c r="N109" s="33"/>
+      <c r="O109" s="33"/>
+      <c r="P109" s="33"/>
+      <c r="Q109" s="33"/>
+      <c r="R109" s="33"/>
+      <c r="S109" s="33"/>
+      <c r="T109" s="33"/>
+      <c r="U109" s="33"/>
+      <c r="V109" s="33"/>
+      <c r="W109" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7873,20 +8108,20 @@
       <c r="G110" s="33"/>
       <c r="H110" s="33"/>
       <c r="I110" s="40"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="29"/>
-      <c r="L110" s="29"/>
-      <c r="M110" s="29"/>
-      <c r="N110" s="29"/>
-      <c r="O110" s="29"/>
-      <c r="P110" s="29"/>
-      <c r="Q110" s="29"/>
-      <c r="R110" s="29"/>
-      <c r="S110" s="29"/>
-      <c r="T110" s="29"/>
-      <c r="U110" s="34"/>
-      <c r="V110" s="35"/>
-      <c r="W110" s="29" t="s">
+      <c r="J110" s="33"/>
+      <c r="K110" s="33"/>
+      <c r="L110" s="33"/>
+      <c r="M110" s="33"/>
+      <c r="N110" s="33"/>
+      <c r="O110" s="33"/>
+      <c r="P110" s="33"/>
+      <c r="Q110" s="33"/>
+      <c r="R110" s="33"/>
+      <c r="S110" s="33"/>
+      <c r="T110" s="33"/>
+      <c r="U110" s="33"/>
+      <c r="V110" s="33"/>
+      <c r="W110" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7910,20 +8145,20 @@
       <c r="G111" s="33"/>
       <c r="H111" s="33"/>
       <c r="I111" s="40"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="29"/>
-      <c r="L111" s="29"/>
-      <c r="M111" s="29"/>
-      <c r="N111" s="29"/>
-      <c r="O111" s="29"/>
-      <c r="P111" s="29"/>
-      <c r="Q111" s="29"/>
-      <c r="R111" s="29"/>
-      <c r="S111" s="29"/>
-      <c r="T111" s="29"/>
-      <c r="U111" s="34"/>
-      <c r="V111" s="35"/>
-      <c r="W111" s="29" t="s">
+      <c r="J111" s="33"/>
+      <c r="K111" s="33"/>
+      <c r="L111" s="33"/>
+      <c r="M111" s="33"/>
+      <c r="N111" s="33"/>
+      <c r="O111" s="33"/>
+      <c r="P111" s="33"/>
+      <c r="Q111" s="33"/>
+      <c r="R111" s="33"/>
+      <c r="S111" s="33"/>
+      <c r="T111" s="33"/>
+      <c r="U111" s="33"/>
+      <c r="V111" s="33"/>
+      <c r="W111" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7947,20 +8182,20 @@
       <c r="G112" s="33"/>
       <c r="H112" s="33"/>
       <c r="I112" s="40"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="29"/>
-      <c r="M112" s="29"/>
-      <c r="N112" s="29"/>
-      <c r="O112" s="29"/>
-      <c r="P112" s="29"/>
-      <c r="Q112" s="29"/>
-      <c r="R112" s="29"/>
-      <c r="S112" s="29"/>
-      <c r="T112" s="29"/>
-      <c r="U112" s="34"/>
-      <c r="V112" s="35"/>
-      <c r="W112" s="29" t="s">
+      <c r="J112" s="33"/>
+      <c r="K112" s="33"/>
+      <c r="L112" s="33"/>
+      <c r="M112" s="33"/>
+      <c r="N112" s="33"/>
+      <c r="O112" s="33"/>
+      <c r="P112" s="33"/>
+      <c r="Q112" s="33"/>
+      <c r="R112" s="33"/>
+      <c r="S112" s="33"/>
+      <c r="T112" s="33"/>
+      <c r="U112" s="33"/>
+      <c r="V112" s="33"/>
+      <c r="W112" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7984,20 +8219,20 @@
       <c r="G113" s="33"/>
       <c r="H113" s="33"/>
       <c r="I113" s="40"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="29"/>
-      <c r="M113" s="29"/>
-      <c r="N113" s="29"/>
-      <c r="O113" s="29"/>
-      <c r="P113" s="29"/>
-      <c r="Q113" s="29"/>
-      <c r="R113" s="29"/>
-      <c r="S113" s="29"/>
-      <c r="T113" s="29"/>
-      <c r="U113" s="34"/>
-      <c r="V113" s="35"/>
-      <c r="W113" s="29" t="s">
+      <c r="J113" s="33"/>
+      <c r="K113" s="33"/>
+      <c r="L113" s="33"/>
+      <c r="M113" s="33"/>
+      <c r="N113" s="33"/>
+      <c r="O113" s="33"/>
+      <c r="P113" s="33"/>
+      <c r="Q113" s="33"/>
+      <c r="R113" s="33"/>
+      <c r="S113" s="33"/>
+      <c r="T113" s="33"/>
+      <c r="U113" s="33"/>
+      <c r="V113" s="33"/>
+      <c r="W113" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8021,20 +8256,20 @@
       <c r="G114" s="33"/>
       <c r="H114" s="33"/>
       <c r="I114" s="40"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="29"/>
-      <c r="M114" s="29"/>
-      <c r="N114" s="29"/>
-      <c r="O114" s="29"/>
-      <c r="P114" s="29"/>
-      <c r="Q114" s="29"/>
-      <c r="R114" s="29"/>
-      <c r="S114" s="29"/>
-      <c r="T114" s="29"/>
-      <c r="U114" s="34"/>
-      <c r="V114" s="35"/>
-      <c r="W114" s="29" t="s">
+      <c r="J114" s="33"/>
+      <c r="K114" s="33"/>
+      <c r="L114" s="33"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="33"/>
+      <c r="O114" s="33"/>
+      <c r="P114" s="33"/>
+      <c r="Q114" s="33"/>
+      <c r="R114" s="33"/>
+      <c r="S114" s="33"/>
+      <c r="T114" s="33"/>
+      <c r="U114" s="33"/>
+      <c r="V114" s="33"/>
+      <c r="W114" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8058,20 +8293,20 @@
       <c r="G115" s="33"/>
       <c r="H115" s="33"/>
       <c r="I115" s="40"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="29"/>
-      <c r="L115" s="29"/>
-      <c r="M115" s="29"/>
-      <c r="N115" s="29"/>
-      <c r="O115" s="29"/>
-      <c r="P115" s="29"/>
-      <c r="Q115" s="29"/>
-      <c r="R115" s="29"/>
-      <c r="S115" s="29"/>
-      <c r="T115" s="29"/>
-      <c r="U115" s="34"/>
-      <c r="V115" s="35"/>
-      <c r="W115" s="29" t="s">
+      <c r="J115" s="33"/>
+      <c r="K115" s="33"/>
+      <c r="L115" s="33"/>
+      <c r="M115" s="33"/>
+      <c r="N115" s="33"/>
+      <c r="O115" s="33"/>
+      <c r="P115" s="33"/>
+      <c r="Q115" s="33"/>
+      <c r="R115" s="33"/>
+      <c r="S115" s="33"/>
+      <c r="T115" s="33"/>
+      <c r="U115" s="33"/>
+      <c r="V115" s="33"/>
+      <c r="W115" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8095,20 +8330,20 @@
       <c r="G116" s="33"/>
       <c r="H116" s="33"/>
       <c r="I116" s="40"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="29"/>
-      <c r="L116" s="29"/>
-      <c r="M116" s="29"/>
-      <c r="N116" s="29"/>
-      <c r="O116" s="29"/>
-      <c r="P116" s="29"/>
-      <c r="Q116" s="29"/>
-      <c r="R116" s="29"/>
-      <c r="S116" s="29"/>
-      <c r="T116" s="29"/>
-      <c r="U116" s="34"/>
-      <c r="V116" s="35"/>
-      <c r="W116" s="29" t="s">
+      <c r="J116" s="33"/>
+      <c r="K116" s="33"/>
+      <c r="L116" s="33"/>
+      <c r="M116" s="33"/>
+      <c r="N116" s="33"/>
+      <c r="O116" s="33"/>
+      <c r="P116" s="33"/>
+      <c r="Q116" s="33"/>
+      <c r="R116" s="33"/>
+      <c r="S116" s="33"/>
+      <c r="T116" s="33"/>
+      <c r="U116" s="33"/>
+      <c r="V116" s="33"/>
+      <c r="W116" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8132,20 +8367,20 @@
       <c r="G117" s="33"/>
       <c r="H117" s="33"/>
       <c r="I117" s="40"/>
-      <c r="J117" s="29"/>
-      <c r="K117" s="29"/>
-      <c r="L117" s="29"/>
-      <c r="M117" s="29"/>
-      <c r="N117" s="29"/>
-      <c r="O117" s="29"/>
-      <c r="P117" s="29"/>
-      <c r="Q117" s="29"/>
-      <c r="R117" s="29"/>
-      <c r="S117" s="29"/>
-      <c r="T117" s="29"/>
-      <c r="U117" s="34"/>
-      <c r="V117" s="35"/>
-      <c r="W117" s="29" t="s">
+      <c r="J117" s="33"/>
+      <c r="K117" s="33"/>
+      <c r="L117" s="33"/>
+      <c r="M117" s="33"/>
+      <c r="N117" s="33"/>
+      <c r="O117" s="33"/>
+      <c r="P117" s="33"/>
+      <c r="Q117" s="33"/>
+      <c r="R117" s="33"/>
+      <c r="S117" s="33"/>
+      <c r="T117" s="33"/>
+      <c r="U117" s="33"/>
+      <c r="V117" s="33"/>
+      <c r="W117" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8169,20 +8404,20 @@
       <c r="G118" s="33"/>
       <c r="H118" s="33"/>
       <c r="I118" s="40"/>
-      <c r="J118" s="29"/>
-      <c r="K118" s="29"/>
-      <c r="L118" s="29"/>
-      <c r="M118" s="29"/>
-      <c r="N118" s="29"/>
-      <c r="O118" s="29"/>
-      <c r="P118" s="29"/>
-      <c r="Q118" s="29"/>
-      <c r="R118" s="29"/>
-      <c r="S118" s="29"/>
-      <c r="T118" s="29"/>
-      <c r="U118" s="34"/>
-      <c r="V118" s="35"/>
-      <c r="W118" s="29" t="s">
+      <c r="J118" s="33"/>
+      <c r="K118" s="33"/>
+      <c r="L118" s="33"/>
+      <c r="M118" s="33"/>
+      <c r="N118" s="33"/>
+      <c r="O118" s="33"/>
+      <c r="P118" s="33"/>
+      <c r="Q118" s="33"/>
+      <c r="R118" s="33"/>
+      <c r="S118" s="33"/>
+      <c r="T118" s="33"/>
+      <c r="U118" s="33"/>
+      <c r="V118" s="33"/>
+      <c r="W118" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8206,20 +8441,20 @@
       <c r="G119" s="33"/>
       <c r="H119" s="33"/>
       <c r="I119" s="40"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="29"/>
-      <c r="L119" s="29"/>
-      <c r="M119" s="29"/>
-      <c r="N119" s="29"/>
-      <c r="O119" s="29"/>
-      <c r="P119" s="29"/>
-      <c r="Q119" s="29"/>
-      <c r="R119" s="29"/>
-      <c r="S119" s="29"/>
-      <c r="T119" s="29"/>
-      <c r="U119" s="34"/>
-      <c r="V119" s="35"/>
-      <c r="W119" s="29" t="s">
+      <c r="J119" s="33"/>
+      <c r="K119" s="33"/>
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="33"/>
+      <c r="O119" s="33"/>
+      <c r="P119" s="33"/>
+      <c r="Q119" s="33"/>
+      <c r="R119" s="33"/>
+      <c r="S119" s="33"/>
+      <c r="T119" s="33"/>
+      <c r="U119" s="33"/>
+      <c r="V119" s="33"/>
+      <c r="W119" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8243,20 +8478,20 @@
       <c r="G120" s="33"/>
       <c r="H120" s="33"/>
       <c r="I120" s="40"/>
-      <c r="J120" s="29"/>
-      <c r="K120" s="29"/>
-      <c r="L120" s="29"/>
-      <c r="M120" s="29"/>
-      <c r="N120" s="29"/>
-      <c r="O120" s="29"/>
-      <c r="P120" s="29"/>
-      <c r="Q120" s="29"/>
-      <c r="R120" s="29"/>
-      <c r="S120" s="29"/>
-      <c r="T120" s="29"/>
-      <c r="U120" s="34"/>
-      <c r="V120" s="35"/>
-      <c r="W120" s="29" t="s">
+      <c r="J120" s="33"/>
+      <c r="K120" s="33"/>
+      <c r="L120" s="33"/>
+      <c r="M120" s="33"/>
+      <c r="N120" s="33"/>
+      <c r="O120" s="33"/>
+      <c r="P120" s="33"/>
+      <c r="Q120" s="33"/>
+      <c r="R120" s="33"/>
+      <c r="S120" s="33"/>
+      <c r="T120" s="33"/>
+      <c r="U120" s="33"/>
+      <c r="V120" s="33"/>
+      <c r="W120" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8280,20 +8515,20 @@
       <c r="G121" s="33"/>
       <c r="H121" s="33"/>
       <c r="I121" s="40"/>
-      <c r="J121" s="29"/>
-      <c r="K121" s="29"/>
-      <c r="L121" s="29"/>
-      <c r="M121" s="29"/>
-      <c r="N121" s="29"/>
-      <c r="O121" s="29"/>
-      <c r="P121" s="29"/>
-      <c r="Q121" s="29"/>
-      <c r="R121" s="29"/>
-      <c r="S121" s="29"/>
-      <c r="T121" s="29"/>
-      <c r="U121" s="34"/>
-      <c r="V121" s="35"/>
-      <c r="W121" s="29" t="s">
+      <c r="J121" s="33"/>
+      <c r="K121" s="33"/>
+      <c r="L121" s="33"/>
+      <c r="M121" s="33"/>
+      <c r="N121" s="33"/>
+      <c r="O121" s="33"/>
+      <c r="P121" s="33"/>
+      <c r="Q121" s="33"/>
+      <c r="R121" s="33"/>
+      <c r="S121" s="33"/>
+      <c r="T121" s="33"/>
+      <c r="U121" s="33"/>
+      <c r="V121" s="33"/>
+      <c r="W121" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8317,20 +8552,20 @@
       <c r="G122" s="33"/>
       <c r="H122" s="33"/>
       <c r="I122" s="40"/>
-      <c r="J122" s="29"/>
-      <c r="K122" s="29"/>
-      <c r="L122" s="29"/>
-      <c r="M122" s="29"/>
-      <c r="N122" s="29"/>
-      <c r="O122" s="29"/>
-      <c r="P122" s="29"/>
-      <c r="Q122" s="29"/>
-      <c r="R122" s="29"/>
-      <c r="S122" s="29"/>
-      <c r="T122" s="29"/>
-      <c r="U122" s="34"/>
-      <c r="V122" s="35"/>
-      <c r="W122" s="29" t="s">
+      <c r="J122" s="33"/>
+      <c r="K122" s="33"/>
+      <c r="L122" s="33"/>
+      <c r="M122" s="33"/>
+      <c r="N122" s="33"/>
+      <c r="O122" s="33"/>
+      <c r="P122" s="33"/>
+      <c r="Q122" s="33"/>
+      <c r="R122" s="33"/>
+      <c r="S122" s="33"/>
+      <c r="T122" s="33"/>
+      <c r="U122" s="33"/>
+      <c r="V122" s="33"/>
+      <c r="W122" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8354,20 +8589,20 @@
       <c r="G123" s="33"/>
       <c r="H123" s="33"/>
       <c r="I123" s="40"/>
-      <c r="J123" s="29"/>
-      <c r="K123" s="29"/>
-      <c r="L123" s="29"/>
-      <c r="M123" s="29"/>
-      <c r="N123" s="29"/>
-      <c r="O123" s="29"/>
-      <c r="P123" s="29"/>
-      <c r="Q123" s="29"/>
-      <c r="R123" s="29"/>
-      <c r="S123" s="29"/>
-      <c r="T123" s="29"/>
-      <c r="U123" s="34"/>
-      <c r="V123" s="35"/>
-      <c r="W123" s="29" t="s">
+      <c r="J123" s="33"/>
+      <c r="K123" s="33"/>
+      <c r="L123" s="33"/>
+      <c r="M123" s="33"/>
+      <c r="N123" s="33"/>
+      <c r="O123" s="33"/>
+      <c r="P123" s="33"/>
+      <c r="Q123" s="33"/>
+      <c r="R123" s="33"/>
+      <c r="S123" s="33"/>
+      <c r="T123" s="33"/>
+      <c r="U123" s="33"/>
+      <c r="V123" s="33"/>
+      <c r="W123" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8391,20 +8626,20 @@
       <c r="G124" s="33"/>
       <c r="H124" s="33"/>
       <c r="I124" s="40"/>
-      <c r="J124" s="29"/>
-      <c r="K124" s="29"/>
-      <c r="L124" s="29"/>
-      <c r="M124" s="29"/>
-      <c r="N124" s="29"/>
-      <c r="O124" s="29"/>
-      <c r="P124" s="29"/>
-      <c r="Q124" s="29"/>
-      <c r="R124" s="29"/>
-      <c r="S124" s="29"/>
-      <c r="T124" s="29"/>
-      <c r="U124" s="34"/>
-      <c r="V124" s="35"/>
-      <c r="W124" s="29" t="s">
+      <c r="J124" s="33"/>
+      <c r="K124" s="33"/>
+      <c r="L124" s="33"/>
+      <c r="M124" s="33"/>
+      <c r="N124" s="33"/>
+      <c r="O124" s="33"/>
+      <c r="P124" s="33"/>
+      <c r="Q124" s="33"/>
+      <c r="R124" s="33"/>
+      <c r="S124" s="33"/>
+      <c r="T124" s="33"/>
+      <c r="U124" s="33"/>
+      <c r="V124" s="33"/>
+      <c r="W124" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8428,20 +8663,20 @@
       <c r="G125" s="33"/>
       <c r="H125" s="33"/>
       <c r="I125" s="40"/>
-      <c r="J125" s="29"/>
-      <c r="K125" s="29"/>
-      <c r="L125" s="29"/>
-      <c r="M125" s="29"/>
-      <c r="N125" s="29"/>
-      <c r="O125" s="29"/>
-      <c r="P125" s="29"/>
-      <c r="Q125" s="29"/>
-      <c r="R125" s="29"/>
-      <c r="S125" s="29"/>
-      <c r="T125" s="29"/>
-      <c r="U125" s="34"/>
-      <c r="V125" s="35"/>
-      <c r="W125" s="29" t="s">
+      <c r="J125" s="33"/>
+      <c r="K125" s="33"/>
+      <c r="L125" s="33"/>
+      <c r="M125" s="33"/>
+      <c r="N125" s="33"/>
+      <c r="O125" s="33"/>
+      <c r="P125" s="33"/>
+      <c r="Q125" s="33"/>
+      <c r="R125" s="33"/>
+      <c r="S125" s="33"/>
+      <c r="T125" s="33"/>
+      <c r="U125" s="33"/>
+      <c r="V125" s="33"/>
+      <c r="W125" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8465,20 +8700,20 @@
       <c r="G126" s="33"/>
       <c r="H126" s="33"/>
       <c r="I126" s="40"/>
-      <c r="J126" s="29"/>
-      <c r="K126" s="29"/>
-      <c r="L126" s="29"/>
-      <c r="M126" s="29"/>
-      <c r="N126" s="29"/>
-      <c r="O126" s="29"/>
-      <c r="P126" s="29"/>
-      <c r="Q126" s="29"/>
-      <c r="R126" s="29"/>
-      <c r="S126" s="29"/>
-      <c r="T126" s="29"/>
-      <c r="U126" s="34"/>
-      <c r="V126" s="35"/>
-      <c r="W126" s="29" t="s">
+      <c r="J126" s="33"/>
+      <c r="K126" s="33"/>
+      <c r="L126" s="33"/>
+      <c r="M126" s="33"/>
+      <c r="N126" s="33"/>
+      <c r="O126" s="33"/>
+      <c r="P126" s="33"/>
+      <c r="Q126" s="33"/>
+      <c r="R126" s="33"/>
+      <c r="S126" s="33"/>
+      <c r="T126" s="33"/>
+      <c r="U126" s="33"/>
+      <c r="V126" s="33"/>
+      <c r="W126" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8502,20 +8737,20 @@
       <c r="G127" s="33"/>
       <c r="H127" s="33"/>
       <c r="I127" s="40"/>
-      <c r="J127" s="29"/>
-      <c r="K127" s="29"/>
-      <c r="L127" s="29"/>
-      <c r="M127" s="29"/>
-      <c r="N127" s="29"/>
-      <c r="O127" s="29"/>
-      <c r="P127" s="29"/>
-      <c r="Q127" s="29"/>
-      <c r="R127" s="29"/>
-      <c r="S127" s="29"/>
-      <c r="T127" s="29"/>
-      <c r="U127" s="34"/>
-      <c r="V127" s="35"/>
-      <c r="W127" s="29" t="s">
+      <c r="J127" s="33"/>
+      <c r="K127" s="33"/>
+      <c r="L127" s="33"/>
+      <c r="M127" s="33"/>
+      <c r="N127" s="33"/>
+      <c r="O127" s="33"/>
+      <c r="P127" s="33"/>
+      <c r="Q127" s="33"/>
+      <c r="R127" s="33"/>
+      <c r="S127" s="33"/>
+      <c r="T127" s="33"/>
+      <c r="U127" s="33"/>
+      <c r="V127" s="33"/>
+      <c r="W127" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8539,20 +8774,20 @@
       <c r="G128" s="33"/>
       <c r="H128" s="33"/>
       <c r="I128" s="40"/>
-      <c r="J128" s="29"/>
-      <c r="K128" s="29"/>
-      <c r="L128" s="29"/>
-      <c r="M128" s="29"/>
-      <c r="N128" s="29"/>
-      <c r="O128" s="29"/>
-      <c r="P128" s="29"/>
-      <c r="Q128" s="29"/>
-      <c r="R128" s="29"/>
-      <c r="S128" s="29"/>
-      <c r="T128" s="29"/>
-      <c r="U128" s="34"/>
-      <c r="V128" s="35"/>
-      <c r="W128" s="29" t="s">
+      <c r="J128" s="33"/>
+      <c r="K128" s="33"/>
+      <c r="L128" s="33"/>
+      <c r="M128" s="33"/>
+      <c r="N128" s="33"/>
+      <c r="O128" s="33"/>
+      <c r="P128" s="33"/>
+      <c r="Q128" s="33"/>
+      <c r="R128" s="33"/>
+      <c r="S128" s="33"/>
+      <c r="T128" s="33"/>
+      <c r="U128" s="33"/>
+      <c r="V128" s="33"/>
+      <c r="W128" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8576,20 +8811,20 @@
       <c r="G129" s="33"/>
       <c r="H129" s="33"/>
       <c r="I129" s="40"/>
-      <c r="J129" s="29"/>
-      <c r="K129" s="29"/>
-      <c r="L129" s="29"/>
-      <c r="M129" s="29"/>
-      <c r="N129" s="29"/>
-      <c r="O129" s="29"/>
-      <c r="P129" s="29"/>
-      <c r="Q129" s="29"/>
-      <c r="R129" s="29"/>
-      <c r="S129" s="29"/>
-      <c r="T129" s="29"/>
-      <c r="U129" s="34"/>
-      <c r="V129" s="35"/>
-      <c r="W129" s="29" t="s">
+      <c r="J129" s="33"/>
+      <c r="K129" s="33"/>
+      <c r="L129" s="33"/>
+      <c r="M129" s="33"/>
+      <c r="N129" s="33"/>
+      <c r="O129" s="33"/>
+      <c r="P129" s="33"/>
+      <c r="Q129" s="33"/>
+      <c r="R129" s="33"/>
+      <c r="S129" s="33"/>
+      <c r="T129" s="33"/>
+      <c r="U129" s="33"/>
+      <c r="V129" s="33"/>
+      <c r="W129" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8613,20 +8848,20 @@
       <c r="G130" s="33"/>
       <c r="H130" s="33"/>
       <c r="I130" s="40"/>
-      <c r="J130" s="29"/>
-      <c r="K130" s="29"/>
-      <c r="L130" s="29"/>
-      <c r="M130" s="29"/>
-      <c r="N130" s="29"/>
-      <c r="O130" s="29"/>
-      <c r="P130" s="29"/>
-      <c r="Q130" s="29"/>
-      <c r="R130" s="29"/>
-      <c r="S130" s="29"/>
-      <c r="T130" s="29"/>
-      <c r="U130" s="34"/>
-      <c r="V130" s="35"/>
-      <c r="W130" s="29" t="s">
+      <c r="J130" s="33"/>
+      <c r="K130" s="33"/>
+      <c r="L130" s="33"/>
+      <c r="M130" s="33"/>
+      <c r="N130" s="33"/>
+      <c r="O130" s="33"/>
+      <c r="P130" s="33"/>
+      <c r="Q130" s="33"/>
+      <c r="R130" s="33"/>
+      <c r="S130" s="33"/>
+      <c r="T130" s="33"/>
+      <c r="U130" s="33"/>
+      <c r="V130" s="33"/>
+      <c r="W130" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8650,20 +8885,20 @@
       <c r="G131" s="33"/>
       <c r="H131" s="33"/>
       <c r="I131" s="40"/>
-      <c r="J131" s="29"/>
-      <c r="K131" s="29"/>
-      <c r="L131" s="29"/>
-      <c r="M131" s="29"/>
-      <c r="N131" s="29"/>
-      <c r="O131" s="29"/>
-      <c r="P131" s="29"/>
-      <c r="Q131" s="29"/>
-      <c r="R131" s="29"/>
-      <c r="S131" s="29"/>
-      <c r="T131" s="29"/>
-      <c r="U131" s="34"/>
-      <c r="V131" s="35"/>
-      <c r="W131" s="29" t="s">
+      <c r="J131" s="33"/>
+      <c r="K131" s="33"/>
+      <c r="L131" s="33"/>
+      <c r="M131" s="33"/>
+      <c r="N131" s="33"/>
+      <c r="O131" s="33"/>
+      <c r="P131" s="33"/>
+      <c r="Q131" s="33"/>
+      <c r="R131" s="33"/>
+      <c r="S131" s="33"/>
+      <c r="T131" s="33"/>
+      <c r="U131" s="33"/>
+      <c r="V131" s="33"/>
+      <c r="W131" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8687,20 +8922,20 @@
       <c r="G132" s="33"/>
       <c r="H132" s="33"/>
       <c r="I132" s="40"/>
-      <c r="J132" s="29"/>
-      <c r="K132" s="29"/>
-      <c r="L132" s="29"/>
-      <c r="M132" s="29"/>
-      <c r="N132" s="29"/>
-      <c r="O132" s="29"/>
-      <c r="P132" s="29"/>
-      <c r="Q132" s="29"/>
-      <c r="R132" s="29"/>
-      <c r="S132" s="29"/>
-      <c r="T132" s="29"/>
-      <c r="U132" s="34"/>
-      <c r="V132" s="35"/>
-      <c r="W132" s="29" t="s">
+      <c r="J132" s="33"/>
+      <c r="K132" s="33"/>
+      <c r="L132" s="33"/>
+      <c r="M132" s="33"/>
+      <c r="N132" s="33"/>
+      <c r="O132" s="33"/>
+      <c r="P132" s="33"/>
+      <c r="Q132" s="33"/>
+      <c r="R132" s="33"/>
+      <c r="S132" s="33"/>
+      <c r="T132" s="33"/>
+      <c r="U132" s="33"/>
+      <c r="V132" s="33"/>
+      <c r="W132" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8724,20 +8959,20 @@
       <c r="G133" s="33"/>
       <c r="H133" s="33"/>
       <c r="I133" s="40"/>
-      <c r="J133" s="29"/>
-      <c r="K133" s="29"/>
-      <c r="L133" s="29"/>
-      <c r="M133" s="29"/>
-      <c r="N133" s="29"/>
-      <c r="O133" s="29"/>
-      <c r="P133" s="29"/>
-      <c r="Q133" s="29"/>
-      <c r="R133" s="29"/>
-      <c r="S133" s="29"/>
-      <c r="T133" s="29"/>
-      <c r="U133" s="34"/>
-      <c r="V133" s="35"/>
-      <c r="W133" s="29" t="s">
+      <c r="J133" s="33"/>
+      <c r="K133" s="33"/>
+      <c r="L133" s="33"/>
+      <c r="M133" s="33"/>
+      <c r="N133" s="33"/>
+      <c r="O133" s="33"/>
+      <c r="P133" s="33"/>
+      <c r="Q133" s="33"/>
+      <c r="R133" s="33"/>
+      <c r="S133" s="33"/>
+      <c r="T133" s="33"/>
+      <c r="U133" s="33"/>
+      <c r="V133" s="33"/>
+      <c r="W133" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8761,20 +8996,20 @@
       <c r="G134" s="33"/>
       <c r="H134" s="33"/>
       <c r="I134" s="40"/>
-      <c r="J134" s="29"/>
-      <c r="K134" s="29"/>
-      <c r="L134" s="29"/>
-      <c r="M134" s="29"/>
-      <c r="N134" s="29"/>
-      <c r="O134" s="29"/>
-      <c r="P134" s="29"/>
-      <c r="Q134" s="29"/>
-      <c r="R134" s="29"/>
-      <c r="S134" s="29"/>
-      <c r="T134" s="29"/>
-      <c r="U134" s="34"/>
-      <c r="V134" s="35"/>
-      <c r="W134" s="29" t="s">
+      <c r="J134" s="33"/>
+      <c r="K134" s="33"/>
+      <c r="L134" s="33"/>
+      <c r="M134" s="33"/>
+      <c r="N134" s="33"/>
+      <c r="O134" s="33"/>
+      <c r="P134" s="33"/>
+      <c r="Q134" s="33"/>
+      <c r="R134" s="33"/>
+      <c r="S134" s="33"/>
+      <c r="T134" s="33"/>
+      <c r="U134" s="33"/>
+      <c r="V134" s="33"/>
+      <c r="W134" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8798,20 +9033,20 @@
       <c r="G135" s="33"/>
       <c r="H135" s="33"/>
       <c r="I135" s="40"/>
-      <c r="J135" s="29"/>
-      <c r="K135" s="29"/>
-      <c r="L135" s="29"/>
-      <c r="M135" s="29"/>
-      <c r="N135" s="29"/>
-      <c r="O135" s="29"/>
-      <c r="P135" s="29"/>
-      <c r="Q135" s="29"/>
-      <c r="R135" s="29"/>
-      <c r="S135" s="29"/>
-      <c r="T135" s="29"/>
-      <c r="U135" s="34"/>
-      <c r="V135" s="35"/>
-      <c r="W135" s="29" t="s">
+      <c r="J135" s="33"/>
+      <c r="K135" s="33"/>
+      <c r="L135" s="33"/>
+      <c r="M135" s="33"/>
+      <c r="N135" s="33"/>
+      <c r="O135" s="33"/>
+      <c r="P135" s="33"/>
+      <c r="Q135" s="33"/>
+      <c r="R135" s="33"/>
+      <c r="S135" s="33"/>
+      <c r="T135" s="33"/>
+      <c r="U135" s="33"/>
+      <c r="V135" s="33"/>
+      <c r="W135" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8835,20 +9070,20 @@
       <c r="G136" s="33"/>
       <c r="H136" s="33"/>
       <c r="I136" s="40"/>
-      <c r="J136" s="29"/>
-      <c r="K136" s="29"/>
-      <c r="L136" s="29"/>
-      <c r="M136" s="29"/>
-      <c r="N136" s="29"/>
-      <c r="O136" s="29"/>
-      <c r="P136" s="29"/>
-      <c r="Q136" s="29"/>
-      <c r="R136" s="29"/>
-      <c r="S136" s="29"/>
-      <c r="T136" s="29"/>
-      <c r="U136" s="34"/>
-      <c r="V136" s="35"/>
-      <c r="W136" s="29" t="s">
+      <c r="J136" s="33"/>
+      <c r="K136" s="33"/>
+      <c r="L136" s="33"/>
+      <c r="M136" s="33"/>
+      <c r="N136" s="33"/>
+      <c r="O136" s="33"/>
+      <c r="P136" s="33"/>
+      <c r="Q136" s="33"/>
+      <c r="R136" s="33"/>
+      <c r="S136" s="33"/>
+      <c r="T136" s="33"/>
+      <c r="U136" s="33"/>
+      <c r="V136" s="33"/>
+      <c r="W136" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8872,20 +9107,20 @@
       <c r="G137" s="33"/>
       <c r="H137" s="33"/>
       <c r="I137" s="40"/>
-      <c r="J137" s="29"/>
-      <c r="K137" s="29"/>
-      <c r="L137" s="29"/>
-      <c r="M137" s="29"/>
-      <c r="N137" s="29"/>
-      <c r="O137" s="29"/>
-      <c r="P137" s="29"/>
-      <c r="Q137" s="29"/>
-      <c r="R137" s="29"/>
-      <c r="S137" s="29"/>
-      <c r="T137" s="29"/>
-      <c r="U137" s="34"/>
-      <c r="V137" s="35"/>
-      <c r="W137" s="29" t="s">
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="33"/>
+      <c r="N137" s="33"/>
+      <c r="O137" s="33"/>
+      <c r="P137" s="33"/>
+      <c r="Q137" s="33"/>
+      <c r="R137" s="33"/>
+      <c r="S137" s="33"/>
+      <c r="T137" s="33"/>
+      <c r="U137" s="33"/>
+      <c r="V137" s="33"/>
+      <c r="W137" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8909,20 +9144,20 @@
       <c r="G138" s="33"/>
       <c r="H138" s="33"/>
       <c r="I138" s="40"/>
-      <c r="J138" s="29"/>
-      <c r="K138" s="29"/>
-      <c r="L138" s="29"/>
-      <c r="M138" s="29"/>
-      <c r="N138" s="29"/>
-      <c r="O138" s="29"/>
-      <c r="P138" s="29"/>
-      <c r="Q138" s="29"/>
-      <c r="R138" s="29"/>
-      <c r="S138" s="29"/>
-      <c r="T138" s="29"/>
-      <c r="U138" s="34"/>
-      <c r="V138" s="35"/>
-      <c r="W138" s="29" t="s">
+      <c r="J138" s="33"/>
+      <c r="K138" s="33"/>
+      <c r="L138" s="33"/>
+      <c r="M138" s="33"/>
+      <c r="N138" s="33"/>
+      <c r="O138" s="33"/>
+      <c r="P138" s="33"/>
+      <c r="Q138" s="33"/>
+      <c r="R138" s="33"/>
+      <c r="S138" s="33"/>
+      <c r="T138" s="33"/>
+      <c r="U138" s="33"/>
+      <c r="V138" s="33"/>
+      <c r="W138" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8946,20 +9181,20 @@
       <c r="G139" s="33"/>
       <c r="H139" s="33"/>
       <c r="I139" s="40"/>
-      <c r="J139" s="29"/>
-      <c r="K139" s="29"/>
-      <c r="L139" s="29"/>
-      <c r="M139" s="29"/>
-      <c r="N139" s="29"/>
-      <c r="O139" s="29"/>
-      <c r="P139" s="29"/>
-      <c r="Q139" s="29"/>
-      <c r="R139" s="29"/>
-      <c r="S139" s="29"/>
-      <c r="T139" s="29"/>
-      <c r="U139" s="34"/>
-      <c r="V139" s="35"/>
-      <c r="W139" s="29" t="s">
+      <c r="J139" s="33"/>
+      <c r="K139" s="33"/>
+      <c r="L139" s="33"/>
+      <c r="M139" s="33"/>
+      <c r="N139" s="33"/>
+      <c r="O139" s="33"/>
+      <c r="P139" s="33"/>
+      <c r="Q139" s="33"/>
+      <c r="R139" s="33"/>
+      <c r="S139" s="33"/>
+      <c r="T139" s="33"/>
+      <c r="U139" s="33"/>
+      <c r="V139" s="33"/>
+      <c r="W139" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8983,20 +9218,20 @@
       <c r="G140" s="33"/>
       <c r="H140" s="33"/>
       <c r="I140" s="40"/>
-      <c r="J140" s="29"/>
-      <c r="K140" s="29"/>
-      <c r="L140" s="29"/>
-      <c r="M140" s="29"/>
-      <c r="N140" s="29"/>
-      <c r="O140" s="29"/>
-      <c r="P140" s="29"/>
-      <c r="Q140" s="29"/>
-      <c r="R140" s="29"/>
-      <c r="S140" s="29"/>
-      <c r="T140" s="29"/>
-      <c r="U140" s="34"/>
-      <c r="V140" s="35"/>
-      <c r="W140" s="29" t="s">
+      <c r="J140" s="33"/>
+      <c r="K140" s="33"/>
+      <c r="L140" s="33"/>
+      <c r="M140" s="33"/>
+      <c r="N140" s="33"/>
+      <c r="O140" s="33"/>
+      <c r="P140" s="33"/>
+      <c r="Q140" s="33"/>
+      <c r="R140" s="33"/>
+      <c r="S140" s="33"/>
+      <c r="T140" s="33"/>
+      <c r="U140" s="33"/>
+      <c r="V140" s="33"/>
+      <c r="W140" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9020,20 +9255,20 @@
       <c r="G141" s="33"/>
       <c r="H141" s="33"/>
       <c r="I141" s="40"/>
-      <c r="J141" s="29"/>
-      <c r="K141" s="29"/>
-      <c r="L141" s="29"/>
-      <c r="M141" s="29"/>
-      <c r="N141" s="29"/>
-      <c r="O141" s="29"/>
-      <c r="P141" s="29"/>
-      <c r="Q141" s="29"/>
-      <c r="R141" s="29"/>
-      <c r="S141" s="29"/>
-      <c r="T141" s="29"/>
-      <c r="U141" s="34"/>
-      <c r="V141" s="35"/>
-      <c r="W141" s="29" t="s">
+      <c r="J141" s="33"/>
+      <c r="K141" s="33"/>
+      <c r="L141" s="33"/>
+      <c r="M141" s="33"/>
+      <c r="N141" s="33"/>
+      <c r="O141" s="33"/>
+      <c r="P141" s="33"/>
+      <c r="Q141" s="33"/>
+      <c r="R141" s="33"/>
+      <c r="S141" s="33"/>
+      <c r="T141" s="33"/>
+      <c r="U141" s="33"/>
+      <c r="V141" s="33"/>
+      <c r="W141" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9057,20 +9292,20 @@
       <c r="G142" s="33"/>
       <c r="H142" s="33"/>
       <c r="I142" s="40"/>
-      <c r="J142" s="29"/>
-      <c r="K142" s="29"/>
-      <c r="L142" s="29"/>
-      <c r="M142" s="29"/>
-      <c r="N142" s="29"/>
-      <c r="O142" s="29"/>
-      <c r="P142" s="29"/>
-      <c r="Q142" s="29"/>
-      <c r="R142" s="29"/>
-      <c r="S142" s="29"/>
-      <c r="T142" s="29"/>
-      <c r="U142" s="34"/>
-      <c r="V142" s="35"/>
-      <c r="W142" s="29" t="s">
+      <c r="J142" s="33"/>
+      <c r="K142" s="33"/>
+      <c r="L142" s="33"/>
+      <c r="M142" s="33"/>
+      <c r="N142" s="33"/>
+      <c r="O142" s="33"/>
+      <c r="P142" s="33"/>
+      <c r="Q142" s="33"/>
+      <c r="R142" s="33"/>
+      <c r="S142" s="33"/>
+      <c r="T142" s="33"/>
+      <c r="U142" s="33"/>
+      <c r="V142" s="33"/>
+      <c r="W142" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9094,20 +9329,20 @@
       <c r="G143" s="33"/>
       <c r="H143" s="33"/>
       <c r="I143" s="40"/>
-      <c r="J143" s="29"/>
-      <c r="K143" s="29"/>
-      <c r="L143" s="29"/>
-      <c r="M143" s="29"/>
-      <c r="N143" s="29"/>
-      <c r="O143" s="29"/>
-      <c r="P143" s="29"/>
-      <c r="Q143" s="29"/>
-      <c r="R143" s="29"/>
-      <c r="S143" s="29"/>
-      <c r="T143" s="29"/>
-      <c r="U143" s="34"/>
-      <c r="V143" s="35"/>
-      <c r="W143" s="29" t="s">
+      <c r="J143" s="33"/>
+      <c r="K143" s="33"/>
+      <c r="L143" s="33"/>
+      <c r="M143" s="33"/>
+      <c r="N143" s="33"/>
+      <c r="O143" s="33"/>
+      <c r="P143" s="33"/>
+      <c r="Q143" s="33"/>
+      <c r="R143" s="33"/>
+      <c r="S143" s="33"/>
+      <c r="T143" s="33"/>
+      <c r="U143" s="33"/>
+      <c r="V143" s="33"/>
+      <c r="W143" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9131,20 +9366,20 @@
       <c r="G144" s="33"/>
       <c r="H144" s="33"/>
       <c r="I144" s="40"/>
-      <c r="J144" s="29"/>
-      <c r="K144" s="29"/>
-      <c r="L144" s="29"/>
-      <c r="M144" s="29"/>
-      <c r="N144" s="29"/>
-      <c r="O144" s="29"/>
-      <c r="P144" s="29"/>
-      <c r="Q144" s="29"/>
-      <c r="R144" s="29"/>
-      <c r="S144" s="29"/>
-      <c r="T144" s="29"/>
-      <c r="U144" s="34"/>
-      <c r="V144" s="35"/>
-      <c r="W144" s="29" t="s">
+      <c r="J144" s="33"/>
+      <c r="K144" s="33"/>
+      <c r="L144" s="33"/>
+      <c r="M144" s="33"/>
+      <c r="N144" s="33"/>
+      <c r="O144" s="33"/>
+      <c r="P144" s="33"/>
+      <c r="Q144" s="33"/>
+      <c r="R144" s="33"/>
+      <c r="S144" s="33"/>
+      <c r="T144" s="33"/>
+      <c r="U144" s="33"/>
+      <c r="V144" s="33"/>
+      <c r="W144" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9168,20 +9403,20 @@
       <c r="G145" s="33"/>
       <c r="H145" s="33"/>
       <c r="I145" s="40"/>
-      <c r="J145" s="29"/>
-      <c r="K145" s="29"/>
-      <c r="L145" s="29"/>
-      <c r="M145" s="29"/>
-      <c r="N145" s="29"/>
-      <c r="O145" s="29"/>
-      <c r="P145" s="29"/>
-      <c r="Q145" s="29"/>
-      <c r="R145" s="29"/>
-      <c r="S145" s="29"/>
-      <c r="T145" s="29"/>
-      <c r="U145" s="34"/>
-      <c r="V145" s="35"/>
-      <c r="W145" s="29" t="s">
+      <c r="J145" s="33"/>
+      <c r="K145" s="33"/>
+      <c r="L145" s="33"/>
+      <c r="M145" s="33"/>
+      <c r="N145" s="33"/>
+      <c r="O145" s="33"/>
+      <c r="P145" s="33"/>
+      <c r="Q145" s="33"/>
+      <c r="R145" s="33"/>
+      <c r="S145" s="33"/>
+      <c r="T145" s="33"/>
+      <c r="U145" s="33"/>
+      <c r="V145" s="33"/>
+      <c r="W145" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9205,20 +9440,20 @@
       <c r="G146" s="33"/>
       <c r="H146" s="33"/>
       <c r="I146" s="40"/>
-      <c r="J146" s="29"/>
-      <c r="K146" s="29"/>
-      <c r="L146" s="29"/>
-      <c r="M146" s="29"/>
-      <c r="N146" s="29"/>
-      <c r="O146" s="29"/>
-      <c r="P146" s="29"/>
-      <c r="Q146" s="29"/>
-      <c r="R146" s="29"/>
-      <c r="S146" s="29"/>
-      <c r="T146" s="29"/>
-      <c r="U146" s="34"/>
-      <c r="V146" s="35"/>
-      <c r="W146" s="29" t="s">
+      <c r="J146" s="33"/>
+      <c r="K146" s="33"/>
+      <c r="L146" s="33"/>
+      <c r="M146" s="33"/>
+      <c r="N146" s="33"/>
+      <c r="O146" s="33"/>
+      <c r="P146" s="33"/>
+      <c r="Q146" s="33"/>
+      <c r="R146" s="33"/>
+      <c r="S146" s="33"/>
+      <c r="T146" s="33"/>
+      <c r="U146" s="33"/>
+      <c r="V146" s="33"/>
+      <c r="W146" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9242,24 +9477,24 @@
       <c r="G147" s="33"/>
       <c r="H147" s="33"/>
       <c r="I147" s="40"/>
-      <c r="J147" s="29"/>
-      <c r="K147" s="29"/>
-      <c r="L147" s="29"/>
-      <c r="M147" s="29"/>
-      <c r="N147" s="29"/>
-      <c r="O147" s="29"/>
-      <c r="P147" s="29"/>
-      <c r="Q147" s="29"/>
-      <c r="R147" s="29"/>
-      <c r="S147" s="29"/>
-      <c r="T147" s="29"/>
-      <c r="U147" s="34"/>
-      <c r="V147" s="35"/>
-      <c r="W147" s="29" t="s">
+      <c r="J147" s="33"/>
+      <c r="K147" s="33"/>
+      <c r="L147" s="33"/>
+      <c r="M147" s="33"/>
+      <c r="N147" s="33"/>
+      <c r="O147" s="33"/>
+      <c r="P147" s="33"/>
+      <c r="Q147" s="33"/>
+      <c r="R147" s="33"/>
+      <c r="S147" s="33"/>
+      <c r="T147" s="33"/>
+      <c r="U147" s="33"/>
+      <c r="V147" s="33"/>
+      <c r="W147" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="31">
         <v>174</v>
       </c>
@@ -9279,24 +9514,30 @@
       <c r="G148" s="33"/>
       <c r="H148" s="33"/>
       <c r="I148" s="40"/>
-      <c r="J148" s="29"/>
-      <c r="K148" s="29"/>
-      <c r="L148" s="29"/>
-      <c r="M148" s="29"/>
-      <c r="N148" s="29"/>
-      <c r="O148" s="29"/>
-      <c r="P148" s="29"/>
-      <c r="Q148" s="29"/>
-      <c r="R148" s="29"/>
-      <c r="S148" s="29"/>
-      <c r="T148" s="29"/>
-      <c r="U148" s="34"/>
-      <c r="V148" s="35"/>
-      <c r="W148" s="29" t="s">
+      <c r="J148" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K148" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L148" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="M148" s="33"/>
+      <c r="N148" s="33"/>
+      <c r="O148" s="33"/>
+      <c r="P148" s="33"/>
+      <c r="Q148" s="33"/>
+      <c r="R148" s="33"/>
+      <c r="S148" s="33"/>
+      <c r="T148" s="33"/>
+      <c r="U148" s="33"/>
+      <c r="V148" s="33"/>
+      <c r="W148" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="31">
         <v>175</v>
       </c>
@@ -9316,24 +9557,30 @@
       <c r="G149" s="33"/>
       <c r="H149" s="33"/>
       <c r="I149" s="40"/>
-      <c r="J149" s="29"/>
-      <c r="K149" s="29"/>
-      <c r="L149" s="29"/>
-      <c r="M149" s="29"/>
-      <c r="N149" s="29"/>
-      <c r="O149" s="29"/>
-      <c r="P149" s="29"/>
-      <c r="Q149" s="29"/>
-      <c r="R149" s="29"/>
-      <c r="S149" s="29"/>
-      <c r="T149" s="29"/>
-      <c r="U149" s="34"/>
-      <c r="V149" s="35"/>
-      <c r="W149" s="29" t="s">
+      <c r="J149" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K149" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L149" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="M149" s="33"/>
+      <c r="N149" s="33"/>
+      <c r="O149" s="33"/>
+      <c r="P149" s="33"/>
+      <c r="Q149" s="33"/>
+      <c r="R149" s="33"/>
+      <c r="S149" s="33"/>
+      <c r="T149" s="33"/>
+      <c r="U149" s="33"/>
+      <c r="V149" s="33"/>
+      <c r="W149" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="31">
         <v>176</v>
       </c>
@@ -9353,24 +9600,30 @@
       <c r="G150" s="33"/>
       <c r="H150" s="33"/>
       <c r="I150" s="40"/>
-      <c r="J150" s="29"/>
-      <c r="K150" s="29"/>
-      <c r="L150" s="29"/>
-      <c r="M150" s="29"/>
-      <c r="N150" s="29"/>
-      <c r="O150" s="29"/>
-      <c r="P150" s="29"/>
-      <c r="Q150" s="29"/>
-      <c r="R150" s="29"/>
-      <c r="S150" s="29"/>
-      <c r="T150" s="29"/>
-      <c r="U150" s="34"/>
-      <c r="V150" s="35"/>
-      <c r="W150" s="29" t="s">
+      <c r="J150" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K150" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L150" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="M150" s="33"/>
+      <c r="N150" s="33"/>
+      <c r="O150" s="33"/>
+      <c r="P150" s="33"/>
+      <c r="Q150" s="33"/>
+      <c r="R150" s="33"/>
+      <c r="S150" s="33"/>
+      <c r="T150" s="33"/>
+      <c r="U150" s="33"/>
+      <c r="V150" s="33"/>
+      <c r="W150" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="31">
         <v>177</v>
       </c>
@@ -9390,24 +9643,30 @@
       <c r="G151" s="33"/>
       <c r="H151" s="33"/>
       <c r="I151" s="40"/>
-      <c r="J151" s="29"/>
-      <c r="K151" s="29"/>
-      <c r="L151" s="29"/>
-      <c r="M151" s="29"/>
-      <c r="N151" s="29"/>
-      <c r="O151" s="29"/>
-      <c r="P151" s="29"/>
-      <c r="Q151" s="29"/>
-      <c r="R151" s="29"/>
-      <c r="S151" s="29"/>
-      <c r="T151" s="29"/>
-      <c r="U151" s="34"/>
-      <c r="V151" s="35"/>
-      <c r="W151" s="29" t="s">
+      <c r="J151" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K151" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L151" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="M151" s="33"/>
+      <c r="N151" s="33"/>
+      <c r="O151" s="33"/>
+      <c r="P151" s="33"/>
+      <c r="Q151" s="33"/>
+      <c r="R151" s="33"/>
+      <c r="S151" s="33"/>
+      <c r="T151" s="33"/>
+      <c r="U151" s="33"/>
+      <c r="V151" s="33"/>
+      <c r="W151" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="31">
         <v>178</v>
       </c>
@@ -9427,24 +9686,30 @@
       <c r="G152" s="33"/>
       <c r="H152" s="33"/>
       <c r="I152" s="40"/>
-      <c r="J152" s="29"/>
-      <c r="K152" s="29"/>
-      <c r="L152" s="29"/>
-      <c r="M152" s="29"/>
-      <c r="N152" s="29"/>
-      <c r="O152" s="29"/>
-      <c r="P152" s="29"/>
-      <c r="Q152" s="29"/>
-      <c r="R152" s="29"/>
-      <c r="S152" s="29"/>
-      <c r="T152" s="29"/>
-      <c r="U152" s="34"/>
-      <c r="V152" s="35"/>
-      <c r="W152" s="29" t="s">
+      <c r="J152" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K152" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L152" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="M152" s="33"/>
+      <c r="N152" s="33"/>
+      <c r="O152" s="33"/>
+      <c r="P152" s="33"/>
+      <c r="Q152" s="33"/>
+      <c r="R152" s="33"/>
+      <c r="S152" s="33"/>
+      <c r="T152" s="33"/>
+      <c r="U152" s="33"/>
+      <c r="V152" s="33"/>
+      <c r="W152" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="31">
         <v>179</v>
       </c>
@@ -9464,24 +9729,30 @@
       <c r="G153" s="33"/>
       <c r="H153" s="33"/>
       <c r="I153" s="40"/>
-      <c r="J153" s="29"/>
-      <c r="K153" s="29"/>
-      <c r="L153" s="29"/>
-      <c r="M153" s="29"/>
-      <c r="N153" s="29"/>
-      <c r="O153" s="29"/>
-      <c r="P153" s="29"/>
-      <c r="Q153" s="29"/>
-      <c r="R153" s="29"/>
-      <c r="S153" s="29"/>
-      <c r="T153" s="29"/>
-      <c r="U153" s="34"/>
-      <c r="V153" s="35"/>
-      <c r="W153" s="29" t="s">
+      <c r="J153" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K153" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L153" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="M153" s="33"/>
+      <c r="N153" s="33"/>
+      <c r="O153" s="33"/>
+      <c r="P153" s="33"/>
+      <c r="Q153" s="33"/>
+      <c r="R153" s="33"/>
+      <c r="S153" s="33"/>
+      <c r="T153" s="33"/>
+      <c r="U153" s="33"/>
+      <c r="V153" s="33"/>
+      <c r="W153" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="31">
         <v>180</v>
       </c>
@@ -9501,24 +9772,30 @@
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
       <c r="I154" s="40"/>
-      <c r="J154" s="29"/>
-      <c r="K154" s="29"/>
-      <c r="L154" s="29"/>
-      <c r="M154" s="29"/>
-      <c r="N154" s="29"/>
-      <c r="O154" s="29"/>
-      <c r="P154" s="29"/>
-      <c r="Q154" s="29"/>
-      <c r="R154" s="29"/>
-      <c r="S154" s="29"/>
-      <c r="T154" s="29"/>
-      <c r="U154" s="34"/>
-      <c r="V154" s="35"/>
-      <c r="W154" s="29" t="s">
+      <c r="J154" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K154" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L154" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="M154" s="33"/>
+      <c r="N154" s="33"/>
+      <c r="O154" s="33"/>
+      <c r="P154" s="33"/>
+      <c r="Q154" s="33"/>
+      <c r="R154" s="33"/>
+      <c r="S154" s="33"/>
+      <c r="T154" s="33"/>
+      <c r="U154" s="33"/>
+      <c r="V154" s="33"/>
+      <c r="W154" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="31">
         <v>181</v>
       </c>
@@ -9538,24 +9815,30 @@
       <c r="G155" s="33"/>
       <c r="H155" s="33"/>
       <c r="I155" s="40"/>
-      <c r="J155" s="29"/>
-      <c r="K155" s="29"/>
-      <c r="L155" s="29"/>
-      <c r="M155" s="29"/>
-      <c r="N155" s="29"/>
-      <c r="O155" s="29"/>
-      <c r="P155" s="29"/>
-      <c r="Q155" s="29"/>
-      <c r="R155" s="29"/>
-      <c r="S155" s="29"/>
-      <c r="T155" s="29"/>
-      <c r="U155" s="34"/>
-      <c r="V155" s="35"/>
-      <c r="W155" s="29" t="s">
+      <c r="J155" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K155" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L155" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="M155" s="33"/>
+      <c r="N155" s="33"/>
+      <c r="O155" s="33"/>
+      <c r="P155" s="33"/>
+      <c r="Q155" s="33"/>
+      <c r="R155" s="33"/>
+      <c r="S155" s="33"/>
+      <c r="T155" s="33"/>
+      <c r="U155" s="33"/>
+      <c r="V155" s="33"/>
+      <c r="W155" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="31">
         <v>182</v>
       </c>
@@ -9575,24 +9858,30 @@
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
       <c r="I156" s="40"/>
-      <c r="J156" s="29"/>
-      <c r="K156" s="29"/>
-      <c r="L156" s="29"/>
-      <c r="M156" s="29"/>
-      <c r="N156" s="29"/>
-      <c r="O156" s="29"/>
-      <c r="P156" s="29"/>
-      <c r="Q156" s="29"/>
-      <c r="R156" s="29"/>
-      <c r="S156" s="29"/>
-      <c r="T156" s="29"/>
-      <c r="U156" s="34"/>
-      <c r="V156" s="35"/>
-      <c r="W156" s="29" t="s">
+      <c r="J156" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K156" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L156" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="M156" s="33"/>
+      <c r="N156" s="33"/>
+      <c r="O156" s="33"/>
+      <c r="P156" s="33"/>
+      <c r="Q156" s="33"/>
+      <c r="R156" s="33"/>
+      <c r="S156" s="33"/>
+      <c r="T156" s="33"/>
+      <c r="U156" s="33"/>
+      <c r="V156" s="33"/>
+      <c r="W156" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="31">
         <v>183</v>
       </c>
@@ -9612,24 +9901,30 @@
       <c r="G157" s="33"/>
       <c r="H157" s="33"/>
       <c r="I157" s="40"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="29"/>
-      <c r="L157" s="29"/>
-      <c r="M157" s="29"/>
-      <c r="N157" s="29"/>
-      <c r="O157" s="29"/>
-      <c r="P157" s="29"/>
-      <c r="Q157" s="29"/>
-      <c r="R157" s="29"/>
-      <c r="S157" s="29"/>
-      <c r="T157" s="29"/>
-      <c r="U157" s="34"/>
-      <c r="V157" s="35"/>
-      <c r="W157" s="29" t="s">
+      <c r="J157" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K157" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L157" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="M157" s="33"/>
+      <c r="N157" s="33"/>
+      <c r="O157" s="33"/>
+      <c r="P157" s="33"/>
+      <c r="Q157" s="33"/>
+      <c r="R157" s="33"/>
+      <c r="S157" s="33"/>
+      <c r="T157" s="33"/>
+      <c r="U157" s="33"/>
+      <c r="V157" s="33"/>
+      <c r="W157" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="31">
         <v>184</v>
       </c>
@@ -9649,24 +9944,30 @@
       <c r="G158" s="33"/>
       <c r="H158" s="33"/>
       <c r="I158" s="40"/>
-      <c r="J158" s="29"/>
-      <c r="K158" s="29"/>
-      <c r="L158" s="29"/>
-      <c r="M158" s="29"/>
-      <c r="N158" s="29"/>
-      <c r="O158" s="29"/>
-      <c r="P158" s="29"/>
-      <c r="Q158" s="29"/>
-      <c r="R158" s="29"/>
-      <c r="S158" s="29"/>
-      <c r="T158" s="29"/>
-      <c r="U158" s="34"/>
-      <c r="V158" s="35"/>
-      <c r="W158" s="29" t="s">
+      <c r="J158" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K158" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L158" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="M158" s="33"/>
+      <c r="N158" s="33"/>
+      <c r="O158" s="33"/>
+      <c r="P158" s="33"/>
+      <c r="Q158" s="33"/>
+      <c r="R158" s="33"/>
+      <c r="S158" s="33"/>
+      <c r="T158" s="33"/>
+      <c r="U158" s="33"/>
+      <c r="V158" s="33"/>
+      <c r="W158" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="31">
         <v>185</v>
       </c>
@@ -9686,24 +9987,30 @@
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
       <c r="I159" s="40"/>
-      <c r="J159" s="29"/>
-      <c r="K159" s="29"/>
-      <c r="L159" s="29"/>
-      <c r="M159" s="29"/>
-      <c r="N159" s="29"/>
-      <c r="O159" s="29"/>
-      <c r="P159" s="29"/>
-      <c r="Q159" s="29"/>
-      <c r="R159" s="29"/>
-      <c r="S159" s="29"/>
-      <c r="T159" s="29"/>
-      <c r="U159" s="34"/>
-      <c r="V159" s="35"/>
-      <c r="W159" s="29" t="s">
+      <c r="J159" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K159" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L159" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="M159" s="33"/>
+      <c r="N159" s="33"/>
+      <c r="O159" s="33"/>
+      <c r="P159" s="33"/>
+      <c r="Q159" s="33"/>
+      <c r="R159" s="33"/>
+      <c r="S159" s="33"/>
+      <c r="T159" s="33"/>
+      <c r="U159" s="33"/>
+      <c r="V159" s="33"/>
+      <c r="W159" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="31">
         <v>186</v>
       </c>
@@ -9723,24 +10030,30 @@
       <c r="G160" s="33"/>
       <c r="H160" s="33"/>
       <c r="I160" s="40"/>
-      <c r="J160" s="29"/>
-      <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
-      <c r="M160" s="29"/>
-      <c r="N160" s="29"/>
-      <c r="O160" s="29"/>
-      <c r="P160" s="29"/>
-      <c r="Q160" s="29"/>
-      <c r="R160" s="29"/>
-      <c r="S160" s="29"/>
-      <c r="T160" s="29"/>
-      <c r="U160" s="34"/>
-      <c r="V160" s="35"/>
-      <c r="W160" s="29" t="s">
+      <c r="J160" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K160" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L160" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="M160" s="33"/>
+      <c r="N160" s="33"/>
+      <c r="O160" s="33"/>
+      <c r="P160" s="33"/>
+      <c r="Q160" s="33"/>
+      <c r="R160" s="33"/>
+      <c r="S160" s="33"/>
+      <c r="T160" s="33"/>
+      <c r="U160" s="33"/>
+      <c r="V160" s="33"/>
+      <c r="W160" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="31">
         <v>187</v>
       </c>
@@ -9760,24 +10073,30 @@
       <c r="G161" s="33"/>
       <c r="H161" s="33"/>
       <c r="I161" s="40"/>
-      <c r="J161" s="29"/>
-      <c r="K161" s="29"/>
-      <c r="L161" s="29"/>
-      <c r="M161" s="29"/>
-      <c r="N161" s="29"/>
-      <c r="O161" s="29"/>
-      <c r="P161" s="29"/>
-      <c r="Q161" s="29"/>
-      <c r="R161" s="29"/>
-      <c r="S161" s="29"/>
-      <c r="T161" s="29"/>
-      <c r="U161" s="34"/>
-      <c r="V161" s="35"/>
-      <c r="W161" s="29" t="s">
+      <c r="J161" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K161" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L161" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="M161" s="33"/>
+      <c r="N161" s="33"/>
+      <c r="O161" s="33"/>
+      <c r="P161" s="33"/>
+      <c r="Q161" s="33"/>
+      <c r="R161" s="33"/>
+      <c r="S161" s="33"/>
+      <c r="T161" s="33"/>
+      <c r="U161" s="33"/>
+      <c r="V161" s="33"/>
+      <c r="W161" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="31">
         <v>188</v>
       </c>
@@ -9797,24 +10116,30 @@
       <c r="G162" s="33"/>
       <c r="H162" s="33"/>
       <c r="I162" s="40"/>
-      <c r="J162" s="29"/>
-      <c r="K162" s="29"/>
-      <c r="L162" s="29"/>
-      <c r="M162" s="29"/>
-      <c r="N162" s="29"/>
-      <c r="O162" s="29"/>
-      <c r="P162" s="29"/>
-      <c r="Q162" s="29"/>
-      <c r="R162" s="29"/>
-      <c r="S162" s="29"/>
-      <c r="T162" s="29"/>
-      <c r="U162" s="34"/>
-      <c r="V162" s="35"/>
-      <c r="W162" s="29" t="s">
+      <c r="J162" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K162" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L162" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="M162" s="33"/>
+      <c r="N162" s="33"/>
+      <c r="O162" s="33"/>
+      <c r="P162" s="33"/>
+      <c r="Q162" s="33"/>
+      <c r="R162" s="33"/>
+      <c r="S162" s="33"/>
+      <c r="T162" s="33"/>
+      <c r="U162" s="33"/>
+      <c r="V162" s="33"/>
+      <c r="W162" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="31">
         <v>189</v>
       </c>
@@ -9834,24 +10159,30 @@
       <c r="G163" s="33"/>
       <c r="H163" s="33"/>
       <c r="I163" s="40"/>
-      <c r="J163" s="29"/>
-      <c r="K163" s="29"/>
-      <c r="L163" s="29"/>
-      <c r="M163" s="29"/>
-      <c r="N163" s="29"/>
-      <c r="O163" s="29"/>
-      <c r="P163" s="29"/>
-      <c r="Q163" s="29"/>
-      <c r="R163" s="29"/>
-      <c r="S163" s="29"/>
-      <c r="T163" s="29"/>
-      <c r="U163" s="34"/>
-      <c r="V163" s="35"/>
-      <c r="W163" s="29" t="s">
+      <c r="J163" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K163" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L163" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="M163" s="33"/>
+      <c r="N163" s="33"/>
+      <c r="O163" s="33"/>
+      <c r="P163" s="33"/>
+      <c r="Q163" s="33"/>
+      <c r="R163" s="33"/>
+      <c r="S163" s="33"/>
+      <c r="T163" s="33"/>
+      <c r="U163" s="33"/>
+      <c r="V163" s="33"/>
+      <c r="W163" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="31">
         <v>190</v>
       </c>
@@ -9871,20 +10202,26 @@
       <c r="G164" s="33"/>
       <c r="H164" s="33"/>
       <c r="I164" s="40"/>
-      <c r="J164" s="29"/>
-      <c r="K164" s="29"/>
-      <c r="L164" s="29"/>
-      <c r="M164" s="29"/>
-      <c r="N164" s="29"/>
-      <c r="O164" s="29"/>
-      <c r="P164" s="29"/>
-      <c r="Q164" s="29"/>
-      <c r="R164" s="29"/>
-      <c r="S164" s="29"/>
-      <c r="T164" s="29"/>
-      <c r="U164" s="34"/>
-      <c r="V164" s="35"/>
-      <c r="W164" s="29" t="s">
+      <c r="J164" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K164" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L164" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="M164" s="33"/>
+      <c r="N164" s="33"/>
+      <c r="O164" s="33"/>
+      <c r="P164" s="33"/>
+      <c r="Q164" s="33"/>
+      <c r="R164" s="33"/>
+      <c r="S164" s="33"/>
+      <c r="T164" s="33"/>
+      <c r="U164" s="33"/>
+      <c r="V164" s="33"/>
+      <c r="W164" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9908,20 +10245,20 @@
       <c r="G165" s="33"/>
       <c r="H165" s="33"/>
       <c r="I165" s="40"/>
-      <c r="J165" s="29"/>
-      <c r="K165" s="29"/>
-      <c r="L165" s="29"/>
-      <c r="M165" s="29"/>
-      <c r="N165" s="29"/>
-      <c r="O165" s="29"/>
-      <c r="P165" s="29"/>
-      <c r="Q165" s="29"/>
-      <c r="R165" s="29"/>
-      <c r="S165" s="29"/>
-      <c r="T165" s="29"/>
-      <c r="U165" s="34"/>
-      <c r="V165" s="35"/>
-      <c r="W165" s="29" t="s">
+      <c r="J165" s="33"/>
+      <c r="K165" s="33"/>
+      <c r="L165" s="33"/>
+      <c r="M165" s="33"/>
+      <c r="N165" s="33"/>
+      <c r="O165" s="33"/>
+      <c r="P165" s="33"/>
+      <c r="Q165" s="33"/>
+      <c r="R165" s="33"/>
+      <c r="S165" s="33"/>
+      <c r="T165" s="33"/>
+      <c r="U165" s="33"/>
+      <c r="V165" s="33"/>
+      <c r="W165" s="33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9945,20 +10282,20 @@
       <c r="G166" s="33"/>
       <c r="H166" s="33"/>
       <c r="I166" s="40"/>
-      <c r="J166" s="29"/>
-      <c r="K166" s="29"/>
-      <c r="L166" s="29"/>
-      <c r="M166" s="29"/>
-      <c r="N166" s="29"/>
-      <c r="O166" s="29"/>
-      <c r="P166" s="29"/>
-      <c r="Q166" s="29"/>
-      <c r="R166" s="29"/>
-      <c r="S166" s="29"/>
-      <c r="T166" s="29"/>
-      <c r="U166" s="34"/>
-      <c r="V166" s="35"/>
-      <c r="W166" s="29" t="s">
+      <c r="J166" s="33"/>
+      <c r="K166" s="33"/>
+      <c r="L166" s="33"/>
+      <c r="M166" s="33"/>
+      <c r="N166" s="33"/>
+      <c r="O166" s="33"/>
+      <c r="P166" s="33"/>
+      <c r="Q166" s="33"/>
+      <c r="R166" s="33"/>
+      <c r="S166" s="33"/>
+      <c r="T166" s="33"/>
+      <c r="U166" s="33"/>
+      <c r="V166" s="33"/>
+      <c r="W166" s="33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9982,20 +10319,20 @@
       <c r="G167" s="33"/>
       <c r="H167" s="33"/>
       <c r="I167" s="40"/>
-      <c r="J167" s="29"/>
-      <c r="K167" s="29"/>
-      <c r="L167" s="29"/>
-      <c r="M167" s="29"/>
-      <c r="N167" s="29"/>
-      <c r="O167" s="29"/>
-      <c r="P167" s="29"/>
-      <c r="Q167" s="29"/>
-      <c r="R167" s="29"/>
-      <c r="S167" s="29"/>
-      <c r="T167" s="29"/>
-      <c r="U167" s="34"/>
-      <c r="V167" s="35"/>
-      <c r="W167" s="29" t="s">
+      <c r="J167" s="33"/>
+      <c r="K167" s="33"/>
+      <c r="L167" s="33"/>
+      <c r="M167" s="33"/>
+      <c r="N167" s="33"/>
+      <c r="O167" s="33"/>
+      <c r="P167" s="33"/>
+      <c r="Q167" s="33"/>
+      <c r="R167" s="33"/>
+      <c r="S167" s="33"/>
+      <c r="T167" s="33"/>
+      <c r="U167" s="33"/>
+      <c r="V167" s="33"/>
+      <c r="W167" s="33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10019,20 +10356,20 @@
       <c r="G168" s="33"/>
       <c r="H168" s="33"/>
       <c r="I168" s="40"/>
-      <c r="J168" s="29"/>
-      <c r="K168" s="29"/>
-      <c r="L168" s="29"/>
-      <c r="M168" s="29"/>
-      <c r="N168" s="29"/>
-      <c r="O168" s="29"/>
-      <c r="P168" s="29"/>
-      <c r="Q168" s="29"/>
-      <c r="R168" s="29"/>
-      <c r="S168" s="29"/>
-      <c r="T168" s="29"/>
-      <c r="U168" s="34"/>
-      <c r="V168" s="35"/>
-      <c r="W168" s="29" t="s">
+      <c r="J168" s="33"/>
+      <c r="K168" s="33"/>
+      <c r="L168" s="33"/>
+      <c r="M168" s="33"/>
+      <c r="N168" s="33"/>
+      <c r="O168" s="33"/>
+      <c r="P168" s="33"/>
+      <c r="Q168" s="33"/>
+      <c r="R168" s="33"/>
+      <c r="S168" s="33"/>
+      <c r="T168" s="33"/>
+      <c r="U168" s="33"/>
+      <c r="V168" s="33"/>
+      <c r="W168" s="33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10056,20 +10393,20 @@
       <c r="G169" s="33"/>
       <c r="H169" s="33"/>
       <c r="I169" s="40"/>
-      <c r="J169" s="29"/>
-      <c r="K169" s="29"/>
-      <c r="L169" s="29"/>
-      <c r="M169" s="29"/>
-      <c r="N169" s="29"/>
-      <c r="O169" s="29"/>
-      <c r="P169" s="29"/>
-      <c r="Q169" s="29"/>
-      <c r="R169" s="29"/>
-      <c r="S169" s="29"/>
-      <c r="T169" s="29"/>
-      <c r="U169" s="34"/>
-      <c r="V169" s="35"/>
-      <c r="W169" s="29" t="s">
+      <c r="J169" s="33"/>
+      <c r="K169" s="33"/>
+      <c r="L169" s="33"/>
+      <c r="M169" s="33"/>
+      <c r="N169" s="33"/>
+      <c r="O169" s="33"/>
+      <c r="P169" s="33"/>
+      <c r="Q169" s="33"/>
+      <c r="R169" s="33"/>
+      <c r="S169" s="33"/>
+      <c r="T169" s="33"/>
+      <c r="U169" s="33"/>
+      <c r="V169" s="33"/>
+      <c r="W169" s="33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10093,20 +10430,20 @@
       <c r="G170" s="33"/>
       <c r="H170" s="33"/>
       <c r="I170" s="40"/>
-      <c r="J170" s="29"/>
-      <c r="K170" s="29"/>
-      <c r="L170" s="29"/>
-      <c r="M170" s="29"/>
-      <c r="N170" s="29"/>
-      <c r="O170" s="29"/>
-      <c r="P170" s="29"/>
-      <c r="Q170" s="29"/>
-      <c r="R170" s="29"/>
-      <c r="S170" s="29"/>
-      <c r="T170" s="29"/>
-      <c r="U170" s="34"/>
-      <c r="V170" s="35"/>
-      <c r="W170" s="29" t="s">
+      <c r="J170" s="33"/>
+      <c r="K170" s="33"/>
+      <c r="L170" s="33"/>
+      <c r="M170" s="33"/>
+      <c r="N170" s="33"/>
+      <c r="O170" s="33"/>
+      <c r="P170" s="33"/>
+      <c r="Q170" s="33"/>
+      <c r="R170" s="33"/>
+      <c r="S170" s="33"/>
+      <c r="T170" s="33"/>
+      <c r="U170" s="33"/>
+      <c r="V170" s="33"/>
+      <c r="W170" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10130,20 +10467,20 @@
       <c r="G171" s="33"/>
       <c r="H171" s="33"/>
       <c r="I171" s="40"/>
-      <c r="J171" s="29"/>
-      <c r="K171" s="29"/>
-      <c r="L171" s="29"/>
-      <c r="M171" s="29"/>
-      <c r="N171" s="29"/>
-      <c r="O171" s="29"/>
-      <c r="P171" s="29"/>
-      <c r="Q171" s="29"/>
-      <c r="R171" s="29"/>
-      <c r="S171" s="29"/>
-      <c r="T171" s="29"/>
-      <c r="U171" s="34"/>
-      <c r="V171" s="35"/>
-      <c r="W171" s="29" t="s">
+      <c r="J171" s="33"/>
+      <c r="K171" s="33"/>
+      <c r="L171" s="33"/>
+      <c r="M171" s="33"/>
+      <c r="N171" s="33"/>
+      <c r="O171" s="33"/>
+      <c r="P171" s="33"/>
+      <c r="Q171" s="33"/>
+      <c r="R171" s="33"/>
+      <c r="S171" s="33"/>
+      <c r="T171" s="33"/>
+      <c r="U171" s="33"/>
+      <c r="V171" s="33"/>
+      <c r="W171" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10167,20 +10504,20 @@
       <c r="G172" s="33"/>
       <c r="H172" s="33"/>
       <c r="I172" s="40"/>
-      <c r="J172" s="29"/>
-      <c r="K172" s="29"/>
-      <c r="L172" s="29"/>
-      <c r="M172" s="29"/>
-      <c r="N172" s="29"/>
-      <c r="O172" s="29"/>
-      <c r="P172" s="29"/>
-      <c r="Q172" s="29"/>
-      <c r="R172" s="29"/>
-      <c r="S172" s="29"/>
-      <c r="T172" s="29"/>
-      <c r="U172" s="34"/>
-      <c r="V172" s="35"/>
-      <c r="W172" s="29" t="s">
+      <c r="J172" s="33"/>
+      <c r="K172" s="33"/>
+      <c r="L172" s="33"/>
+      <c r="M172" s="33"/>
+      <c r="N172" s="33"/>
+      <c r="O172" s="33"/>
+      <c r="P172" s="33"/>
+      <c r="Q172" s="33"/>
+      <c r="R172" s="33"/>
+      <c r="S172" s="33"/>
+      <c r="T172" s="33"/>
+      <c r="U172" s="33"/>
+      <c r="V172" s="33"/>
+      <c r="W172" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10204,20 +10541,20 @@
       <c r="G173" s="33"/>
       <c r="H173" s="33"/>
       <c r="I173" s="40"/>
-      <c r="J173" s="29"/>
-      <c r="K173" s="29"/>
-      <c r="L173" s="29"/>
-      <c r="M173" s="29"/>
-      <c r="N173" s="29"/>
-      <c r="O173" s="29"/>
-      <c r="P173" s="29"/>
-      <c r="Q173" s="29"/>
-      <c r="R173" s="29"/>
-      <c r="S173" s="29"/>
-      <c r="T173" s="29"/>
-      <c r="U173" s="34"/>
-      <c r="V173" s="35"/>
-      <c r="W173" s="29" t="s">
+      <c r="J173" s="33"/>
+      <c r="K173" s="33"/>
+      <c r="L173" s="33"/>
+      <c r="M173" s="33"/>
+      <c r="N173" s="33"/>
+      <c r="O173" s="33"/>
+      <c r="P173" s="33"/>
+      <c r="Q173" s="33"/>
+      <c r="R173" s="33"/>
+      <c r="S173" s="33"/>
+      <c r="T173" s="33"/>
+      <c r="U173" s="33"/>
+      <c r="V173" s="33"/>
+      <c r="W173" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10241,20 +10578,20 @@
       <c r="G174" s="33"/>
       <c r="H174" s="33"/>
       <c r="I174" s="40"/>
-      <c r="J174" s="29"/>
-      <c r="K174" s="29"/>
-      <c r="L174" s="29"/>
-      <c r="M174" s="29"/>
-      <c r="N174" s="29"/>
-      <c r="O174" s="29"/>
-      <c r="P174" s="29"/>
-      <c r="Q174" s="29"/>
-      <c r="R174" s="29"/>
-      <c r="S174" s="29"/>
-      <c r="T174" s="29"/>
-      <c r="U174" s="34"/>
-      <c r="V174" s="35"/>
-      <c r="W174" s="29" t="s">
+      <c r="J174" s="33"/>
+      <c r="K174" s="33"/>
+      <c r="L174" s="33"/>
+      <c r="M174" s="33"/>
+      <c r="N174" s="33"/>
+      <c r="O174" s="33"/>
+      <c r="P174" s="33"/>
+      <c r="Q174" s="33"/>
+      <c r="R174" s="33"/>
+      <c r="S174" s="33"/>
+      <c r="T174" s="33"/>
+      <c r="U174" s="33"/>
+      <c r="V174" s="33"/>
+      <c r="W174" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10278,20 +10615,20 @@
       <c r="G175" s="33"/>
       <c r="H175" s="33"/>
       <c r="I175" s="40"/>
-      <c r="J175" s="29"/>
-      <c r="K175" s="29"/>
-      <c r="L175" s="29"/>
-      <c r="M175" s="29"/>
-      <c r="N175" s="29"/>
-      <c r="O175" s="29"/>
-      <c r="P175" s="29"/>
-      <c r="Q175" s="29"/>
-      <c r="R175" s="29"/>
-      <c r="S175" s="29"/>
-      <c r="T175" s="29"/>
-      <c r="U175" s="34"/>
-      <c r="V175" s="35"/>
-      <c r="W175" s="29" t="s">
+      <c r="J175" s="33"/>
+      <c r="K175" s="33"/>
+      <c r="L175" s="33"/>
+      <c r="M175" s="33"/>
+      <c r="N175" s="33"/>
+      <c r="O175" s="33"/>
+      <c r="P175" s="33"/>
+      <c r="Q175" s="33"/>
+      <c r="R175" s="33"/>
+      <c r="S175" s="33"/>
+      <c r="T175" s="33"/>
+      <c r="U175" s="33"/>
+      <c r="V175" s="33"/>
+      <c r="W175" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10315,20 +10652,20 @@
       <c r="G176" s="33"/>
       <c r="H176" s="33"/>
       <c r="I176" s="40"/>
-      <c r="J176" s="29"/>
-      <c r="K176" s="29"/>
-      <c r="L176" s="29"/>
-      <c r="M176" s="29"/>
-      <c r="N176" s="29"/>
-      <c r="O176" s="29"/>
-      <c r="P176" s="29"/>
-      <c r="Q176" s="29"/>
-      <c r="R176" s="29"/>
-      <c r="S176" s="29"/>
-      <c r="T176" s="29"/>
-      <c r="U176" s="34"/>
-      <c r="V176" s="35"/>
-      <c r="W176" s="29" t="s">
+      <c r="J176" s="33"/>
+      <c r="K176" s="33"/>
+      <c r="L176" s="33"/>
+      <c r="M176" s="33"/>
+      <c r="N176" s="33"/>
+      <c r="O176" s="33"/>
+      <c r="P176" s="33"/>
+      <c r="Q176" s="33"/>
+      <c r="R176" s="33"/>
+      <c r="S176" s="33"/>
+      <c r="T176" s="33"/>
+      <c r="U176" s="33"/>
+      <c r="V176" s="33"/>
+      <c r="W176" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10352,20 +10689,20 @@
       <c r="G177" s="33"/>
       <c r="H177" s="33"/>
       <c r="I177" s="40"/>
-      <c r="J177" s="29"/>
-      <c r="K177" s="29"/>
-      <c r="L177" s="29"/>
-      <c r="M177" s="29"/>
-      <c r="N177" s="29"/>
-      <c r="O177" s="29"/>
-      <c r="P177" s="29"/>
-      <c r="Q177" s="29"/>
-      <c r="R177" s="29"/>
-      <c r="S177" s="29"/>
-      <c r="T177" s="29"/>
-      <c r="U177" s="34"/>
-      <c r="V177" s="35"/>
-      <c r="W177" s="29" t="s">
+      <c r="J177" s="33"/>
+      <c r="K177" s="33"/>
+      <c r="L177" s="33"/>
+      <c r="M177" s="33"/>
+      <c r="N177" s="33"/>
+      <c r="O177" s="33"/>
+      <c r="P177" s="33"/>
+      <c r="Q177" s="33"/>
+      <c r="R177" s="33"/>
+      <c r="S177" s="33"/>
+      <c r="T177" s="33"/>
+      <c r="U177" s="33"/>
+      <c r="V177" s="33"/>
+      <c r="W177" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10389,20 +10726,20 @@
       <c r="G178" s="33"/>
       <c r="H178" s="33"/>
       <c r="I178" s="40"/>
-      <c r="J178" s="29"/>
-      <c r="K178" s="29"/>
-      <c r="L178" s="29"/>
-      <c r="M178" s="29"/>
-      <c r="N178" s="29"/>
-      <c r="O178" s="29"/>
-      <c r="P178" s="29"/>
-      <c r="Q178" s="29"/>
-      <c r="R178" s="29"/>
-      <c r="S178" s="29"/>
-      <c r="T178" s="29"/>
-      <c r="U178" s="34"/>
-      <c r="V178" s="35"/>
-      <c r="W178" s="29" t="s">
+      <c r="J178" s="33"/>
+      <c r="K178" s="33"/>
+      <c r="L178" s="33"/>
+      <c r="M178" s="33"/>
+      <c r="N178" s="33"/>
+      <c r="O178" s="33"/>
+      <c r="P178" s="33"/>
+      <c r="Q178" s="33"/>
+      <c r="R178" s="33"/>
+      <c r="S178" s="33"/>
+      <c r="T178" s="33"/>
+      <c r="U178" s="33"/>
+      <c r="V178" s="33"/>
+      <c r="W178" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10426,20 +10763,20 @@
       <c r="G179" s="33"/>
       <c r="H179" s="33"/>
       <c r="I179" s="40"/>
-      <c r="J179" s="29"/>
-      <c r="K179" s="29"/>
-      <c r="L179" s="29"/>
-      <c r="M179" s="29"/>
-      <c r="N179" s="29"/>
-      <c r="O179" s="29"/>
-      <c r="P179" s="29"/>
-      <c r="Q179" s="29"/>
-      <c r="R179" s="29"/>
-      <c r="S179" s="29"/>
-      <c r="T179" s="29"/>
-      <c r="U179" s="34"/>
-      <c r="V179" s="35"/>
-      <c r="W179" s="29" t="s">
+      <c r="J179" s="33"/>
+      <c r="K179" s="33"/>
+      <c r="L179" s="33"/>
+      <c r="M179" s="33"/>
+      <c r="N179" s="33"/>
+      <c r="O179" s="33"/>
+      <c r="P179" s="33"/>
+      <c r="Q179" s="33"/>
+      <c r="R179" s="33"/>
+      <c r="S179" s="33"/>
+      <c r="T179" s="33"/>
+      <c r="U179" s="33"/>
+      <c r="V179" s="33"/>
+      <c r="W179" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10463,20 +10800,20 @@
       <c r="G180" s="33"/>
       <c r="H180" s="33"/>
       <c r="I180" s="40"/>
-      <c r="J180" s="29"/>
-      <c r="K180" s="29"/>
-      <c r="L180" s="29"/>
-      <c r="M180" s="29"/>
-      <c r="N180" s="29"/>
-      <c r="O180" s="29"/>
-      <c r="P180" s="29"/>
-      <c r="Q180" s="29"/>
-      <c r="R180" s="29"/>
-      <c r="S180" s="29"/>
-      <c r="T180" s="29"/>
-      <c r="U180" s="34"/>
-      <c r="V180" s="35"/>
-      <c r="W180" s="29" t="s">
+      <c r="J180" s="33"/>
+      <c r="K180" s="33"/>
+      <c r="L180" s="33"/>
+      <c r="M180" s="33"/>
+      <c r="N180" s="33"/>
+      <c r="O180" s="33"/>
+      <c r="P180" s="33"/>
+      <c r="Q180" s="33"/>
+      <c r="R180" s="33"/>
+      <c r="S180" s="33"/>
+      <c r="T180" s="33"/>
+      <c r="U180" s="33"/>
+      <c r="V180" s="33"/>
+      <c r="W180" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10500,20 +10837,20 @@
       <c r="G181" s="33"/>
       <c r="H181" s="33"/>
       <c r="I181" s="40"/>
-      <c r="J181" s="29"/>
-      <c r="K181" s="29"/>
-      <c r="L181" s="29"/>
-      <c r="M181" s="29"/>
-      <c r="N181" s="29"/>
-      <c r="O181" s="29"/>
-      <c r="P181" s="29"/>
-      <c r="Q181" s="29"/>
-      <c r="R181" s="29"/>
-      <c r="S181" s="29"/>
-      <c r="T181" s="29"/>
-      <c r="U181" s="34"/>
-      <c r="V181" s="35"/>
-      <c r="W181" s="29" t="s">
+      <c r="J181" s="33"/>
+      <c r="K181" s="33"/>
+      <c r="L181" s="33"/>
+      <c r="M181" s="33"/>
+      <c r="N181" s="33"/>
+      <c r="O181" s="33"/>
+      <c r="P181" s="33"/>
+      <c r="Q181" s="33"/>
+      <c r="R181" s="33"/>
+      <c r="S181" s="33"/>
+      <c r="T181" s="33"/>
+      <c r="U181" s="33"/>
+      <c r="V181" s="33"/>
+      <c r="W181" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10537,20 +10874,20 @@
       <c r="G182" s="33"/>
       <c r="H182" s="33"/>
       <c r="I182" s="40"/>
-      <c r="J182" s="29"/>
-      <c r="K182" s="29"/>
-      <c r="L182" s="29"/>
-      <c r="M182" s="29"/>
-      <c r="N182" s="29"/>
-      <c r="O182" s="29"/>
-      <c r="P182" s="29"/>
-      <c r="Q182" s="29"/>
-      <c r="R182" s="29"/>
-      <c r="S182" s="29"/>
-      <c r="T182" s="29"/>
-      <c r="U182" s="34"/>
-      <c r="V182" s="35"/>
-      <c r="W182" s="29" t="s">
+      <c r="J182" s="33"/>
+      <c r="K182" s="33"/>
+      <c r="L182" s="33"/>
+      <c r="M182" s="33"/>
+      <c r="N182" s="33"/>
+      <c r="O182" s="33"/>
+      <c r="P182" s="33"/>
+      <c r="Q182" s="33"/>
+      <c r="R182" s="33"/>
+      <c r="S182" s="33"/>
+      <c r="T182" s="33"/>
+      <c r="U182" s="33"/>
+      <c r="V182" s="33"/>
+      <c r="W182" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10574,20 +10911,20 @@
       <c r="G183" s="33"/>
       <c r="H183" s="33"/>
       <c r="I183" s="40"/>
-      <c r="J183" s="29"/>
-      <c r="K183" s="29"/>
-      <c r="L183" s="29"/>
-      <c r="M183" s="29"/>
-      <c r="N183" s="29"/>
-      <c r="O183" s="29"/>
-      <c r="P183" s="29"/>
-      <c r="Q183" s="29"/>
-      <c r="R183" s="29"/>
-      <c r="S183" s="29"/>
-      <c r="T183" s="29"/>
-      <c r="U183" s="34"/>
-      <c r="V183" s="35"/>
-      <c r="W183" s="29" t="s">
+      <c r="J183" s="33"/>
+      <c r="K183" s="33"/>
+      <c r="L183" s="33"/>
+      <c r="M183" s="33"/>
+      <c r="N183" s="33"/>
+      <c r="O183" s="33"/>
+      <c r="P183" s="33"/>
+      <c r="Q183" s="33"/>
+      <c r="R183" s="33"/>
+      <c r="S183" s="33"/>
+      <c r="T183" s="33"/>
+      <c r="U183" s="33"/>
+      <c r="V183" s="33"/>
+      <c r="W183" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10619,22 +10956,22 @@
       <c r="I184" s="40" t="s">
         <v>458</v>
       </c>
-      <c r="J184" s="29" t="s">
+      <c r="J184" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="K184" s="29"/>
-      <c r="L184" s="29"/>
-      <c r="M184" s="29"/>
-      <c r="N184" s="29"/>
-      <c r="O184" s="29"/>
-      <c r="P184" s="29"/>
-      <c r="Q184" s="29"/>
-      <c r="R184" s="29"/>
-      <c r="S184" s="29"/>
-      <c r="T184" s="29"/>
-      <c r="U184" s="34"/>
-      <c r="V184" s="35"/>
-      <c r="W184" s="29" t="s">
+      <c r="K184" s="33"/>
+      <c r="L184" s="33"/>
+      <c r="M184" s="33"/>
+      <c r="N184" s="33"/>
+      <c r="O184" s="33"/>
+      <c r="P184" s="33"/>
+      <c r="Q184" s="33"/>
+      <c r="R184" s="33"/>
+      <c r="S184" s="33"/>
+      <c r="T184" s="33"/>
+      <c r="U184" s="33"/>
+      <c r="V184" s="33"/>
+      <c r="W184" s="33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10657,7 +10994,7 @@
       <c r="F185" s="33">
         <v>45707</v>
       </c>
-      <c r="G185" s="54" t="s">
+      <c r="G185" s="42" t="s">
         <v>455</v>
       </c>
       <c r="H185" s="33" t="s">
@@ -10666,22 +11003,22 @@
       <c r="I185" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="J185" s="29" t="s">
+      <c r="J185" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="K185" s="29"/>
-      <c r="L185" s="29"/>
-      <c r="M185" s="29"/>
-      <c r="N185" s="29"/>
-      <c r="O185" s="29"/>
-      <c r="P185" s="29"/>
-      <c r="Q185" s="29"/>
-      <c r="R185" s="29"/>
-      <c r="S185" s="29"/>
-      <c r="T185" s="29"/>
-      <c r="U185" s="34"/>
-      <c r="V185" s="35"/>
-      <c r="W185" s="29" t="s">
+      <c r="K185" s="33"/>
+      <c r="L185" s="33"/>
+      <c r="M185" s="33"/>
+      <c r="N185" s="33"/>
+      <c r="O185" s="33"/>
+      <c r="P185" s="33"/>
+      <c r="Q185" s="33"/>
+      <c r="R185" s="33"/>
+      <c r="S185" s="33"/>
+      <c r="T185" s="33"/>
+      <c r="U185" s="33"/>
+      <c r="V185" s="33"/>
+      <c r="W185" s="33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10705,20 +11042,20 @@
       <c r="G186" s="33"/>
       <c r="H186" s="33"/>
       <c r="I186" s="40"/>
-      <c r="J186" s="29"/>
-      <c r="K186" s="29"/>
-      <c r="L186" s="29"/>
-      <c r="M186" s="29"/>
-      <c r="N186" s="29"/>
-      <c r="O186" s="29"/>
-      <c r="P186" s="29"/>
-      <c r="Q186" s="29"/>
-      <c r="R186" s="29"/>
-      <c r="S186" s="29"/>
-      <c r="T186" s="29"/>
-      <c r="U186" s="34"/>
-      <c r="V186" s="35"/>
-      <c r="W186" s="29" t="s">
+      <c r="J186" s="33"/>
+      <c r="K186" s="33"/>
+      <c r="L186" s="33"/>
+      <c r="M186" s="33"/>
+      <c r="N186" s="33"/>
+      <c r="O186" s="33"/>
+      <c r="P186" s="33"/>
+      <c r="Q186" s="33"/>
+      <c r="R186" s="33"/>
+      <c r="S186" s="33"/>
+      <c r="T186" s="33"/>
+      <c r="U186" s="33"/>
+      <c r="V186" s="33"/>
+      <c r="W186" s="33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15561,11 +15898,6 @@
     <filterColumn colId="2">
       <filters>
         <filter val="PSS"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="22">
-      <filters>
-        <filter val="OK"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -15589,7 +15921,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J14 M14:N14 P14:R14 J16:J20 M16:N20 P16:R20 J22 M22:N22 P22:R22 J24:J28 M24:N28 P24:R28 P10:R12 M10:N12 J10:J12 P30:R198 J30:J198 M30:N198</xm:sqref>
+          <xm:sqref>J165:J198 M14:N14 P14:R14 J30:J147 M16:N20 P16:R20 J22 M22:N22 P22:R22 J24:J28 M24:N28 P24:R28 P10:R12 M10:N12 J10:J12 P30:R198 M30:N198</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -15601,7 +15933,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K198</xm:sqref>
+          <xm:sqref>K10:K12 K165:K198 K22:K28 K30:K147</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17848,6 +18180,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F560B38A5B3C4B41B1895754B1F1A56A" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="69dc0f489d46816a4b9bb4a327e14425">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca719f03-9e45-4ef4-9920-d156f53157f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7de9a44ff87fdcabda187bbd662e75de" ns2:_="">
     <xsd:import namespace="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
@@ -18019,39 +18370,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CEF28A-E0A2-4D9D-9130-F7D0F35034F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18075,9 +18397,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CEF28A-E0A2-4D9D-9130-F7D0F35034F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
